--- a/Resultados/Mercado mundial - Tabaco sin elaborar.xlsx
+++ b/Resultados/Mercado mundial - Tabaco sin elaborar.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="India" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Brazil" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Indonesia" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Zimbabwe" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brasil" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indonesia" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Zimbabwe" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,10 +301,8 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -408,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -434,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -490,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -516,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -572,18 +570,18 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Exportaciones (Miles de Toneladas)</a:t>
+              <a:t>Exportaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -598,10 +596,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -641,7 +639,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -654,18 +652,18 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Importaciones (Miles de Toneladas)</a:t>
+              <a:t>Importaciones (Millones de Toneladas)</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -680,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -723,7 +721,7 @@
         <delete val="0"/>
         <axPos val="l"/>
         <majorGridlines/>
-        <numFmt formatCode="#,##0.00," sourceLinked="0"/>
+        <numFmt formatCode="#,##0.00,," sourceLinked="0"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -736,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -762,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -818,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -844,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'India'!$B$12:$B$73</f>
+              <f>'India'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'India'!$C$12:$C$73</f>
+              <f>'India'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -900,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -926,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Brazil'!$B$12:$B$73</f>
+              <f>'Brasil'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Brazil'!$C$12:$C$73</f>
+              <f>'Brasil'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -982,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1008,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Indonesia'!$B$12:$B$73</f>
+              <f>'Indonesia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Indonesia'!$C$12:$C$73</f>
+              <f>'Indonesia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1064,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1090,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Zimbabwe'!$B$12:$B$73</f>
+              <f>'Zimbabwe'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Zimbabwe'!$C$12:$C$73</f>
+              <f>'Zimbabwe'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1146,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1164,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1204,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1216,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1234,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1274,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1286,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1304,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1344,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1356,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1374,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1414,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1426,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1441,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1463,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1478,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1493,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1515,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1530,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1545,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1567,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1582,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1597,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1619,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1634,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1649,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1671,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2012,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2061,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2140,10 +2138,10 @@
         <v>3222582</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1.8693</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>6023939.83</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1.8693</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2143561.39</v>
@@ -2162,10 +2160,10 @@
         <v>3150638</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1.8321</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>5772379.25</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1.8321</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2259740.2</v>
@@ -2184,10 +2182,10 @@
         <v>3171082</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1.8571</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>5889104.93</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1.8571</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2172470.93</v>
@@ -2206,10 +2204,10 @@
         <v>3181797</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1.8297</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>5821856.8</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1.8297</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2144409.09</v>
@@ -2228,10 +2226,10 @@
         <v>3323932</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1.9533</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>6492655.01</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1.9533</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>2364779.96</v>
@@ -2250,10 +2248,10 @@
         <v>3268082</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1.8505</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>6047558.05</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1.8505</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2457514.31</v>
@@ -2272,10 +2270,10 @@
         <v>3379901</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1.8545</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>6268018.16</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1.8545</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2451452.58</v>
@@ -2294,10 +2292,10 @@
         <v>3417991</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1.8254</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>6239360.99</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1.8254</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2303343.83</v>
@@ -2316,10 +2314,10 @@
         <v>3677135</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1.8252</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>6711625.58</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1.8252</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2356762.96</v>
@@ -2338,10 +2336,10 @@
         <v>3969823</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1.8163</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>7210540.45</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1.8163</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2444883.61</v>
@@ -2360,10 +2358,10 @@
         <v>4207547</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.7839</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>7505796.29</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.7839</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2502941</v>
@@ -2382,10 +2380,10 @@
         <v>4131376</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.8131</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>7490619.14</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.8131</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2637129</v>
@@ -2404,10 +2402,10 @@
         <v>4196261</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1.7745</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>7446143.03</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1.7745</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2441180</v>
@@ -2426,10 +2424,10 @@
         <v>3948003</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1.7502</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>6909739.77</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1.7502</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2514494</v>
@@ -2448,10 +2446,10 @@
         <v>3929726</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.8054</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>7094659.59</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.8054</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2436812</v>
@@ -2470,10 +2468,10 @@
         <v>3792872</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.7321</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>6569510.63</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.7321</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>2563161</v>
@@ -2492,10 +2490,10 @@
         <v>3632336</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.6915</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>6144242.76</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.6915</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2528736</v>
@@ -2514,10 +2512,10 @@
         <v>3826744</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.7019</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>6512703.69</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.7019</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2484606</v>
@@ -2536,10 +2534,10 @@
         <v>3973204</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.6917</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>6721291.8</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.6917</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>2503398</v>
@@ -2558,10 +2556,10 @@
         <v>3892212</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.685</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>6558236.27</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.685</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>2544411</v>
@@ -2580,10 +2578,10 @@
         <v>3791144</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1.5822</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>5998454.4</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1.5822</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2216688</v>
@@ -2602,10 +2600,10 @@
         <v>3884180</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1.6502</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>6409543.75</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1.6502</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>2220015</v>
@@ -2624,10 +2622,10 @@
         <v>3828158</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1.5948</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>6105198.77</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1.5948</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>2247502.78</v>
@@ -2646,10 +2644,10 @@
         <v>4143849</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1.6136</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>6686403.93</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1.6136</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>2198268.42</v>
@@ -2668,10 +2666,10 @@
         <v>4321806</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1.6129</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>6970718.25</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1.6129</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>2071746.21</v>
@@ -2690,10 +2688,10 @@
         <v>4386995</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1.5681</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>6879321.51</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1.5681</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>2082015.65</v>
@@ -2712,10 +2710,10 @@
         <v>5377923</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1.6631</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>8944145.93</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1.6631</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>2063269.4</v>
@@ -2734,10 +2732,10 @@
         <v>4653545</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1.5888</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>7393368.96</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1.5888</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>2010809.5</v>
@@ -2756,10 +2754,10 @@
         <v>4132682</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1.5171</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>6269765.36</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1.5171</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1749172.05</v>
@@ -2778,10 +2776,10 @@
         <v>4234714</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1.5233</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>6450899.74</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1.5233</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1816294.29</v>
@@ -2800,10 +2798,10 @@
         <v>5288599</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1.5769</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>8339436.52</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1.5769</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1684923</v>
@@ -2822,10 +2820,10 @@
         <v>5314496</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1.5669</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>8327260.07</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1.5669</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1782197</v>
@@ -2844,10 +2842,10 @@
         <v>4887320</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1.5459</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>7555160.64</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1.5459</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1629553</v>
@@ -2866,10 +2864,10 @@
         <v>4646018</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1.5363</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>7137622</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1.5363</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1463339</v>
@@ -2888,10 +2886,10 @@
         <v>4796417</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1.4731</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>7065383</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1.4731</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1414040</v>
@@ -2910,10 +2908,10 @@
         <v>4527657</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1.5107</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>6839739</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1.5107</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>1337125</v>
@@ -2932,10 +2930,10 @@
         <v>4256949</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1.4513</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>6177934</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1.4513</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1411946</v>
@@ -2954,10 +2952,10 @@
         <v>4273688</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1.4058</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>6007970</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1.4058</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>1367956</v>
@@ -2976,10 +2974,10 @@
         <v>4694860</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1.5015</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>7049173</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1.5015</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>1381415</v>
@@ -2998,10 +2996,10 @@
         <v>4204664</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1.5588</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>6554436</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1.5588</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>1433750</v>
@@ -3020,10 +3018,10 @@
         <v>4248026</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1.4095</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>5987773</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1.4095</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>1368539</v>
@@ -3042,10 +3040,10 @@
         <v>4541213</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1.5301</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>6948540</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1.5301</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1409875</v>
@@ -3064,10 +3062,10 @@
         <v>4119047</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1.4521</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>5981452</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1.4521</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1442227</v>
@@ -3086,10 +3084,10 @@
         <v>3897571</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1.3491</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>5258279</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1.3491</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>1409201</v>
@@ -3108,10 +3106,10 @@
         <v>4095794</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1.3267</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>5434050</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1.3267</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1393777</v>
@@ -3130,10 +3128,10 @@
         <v>4565923</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1.3114</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>5987651</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1.3114</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1424769</v>
@@ -3152,10 +3150,10 @@
         <v>4439482</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1.2575</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>5582681</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1.2575</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1257350</v>
@@ -3174,10 +3172,10 @@
         <v>4383880</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1.3077</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>5732960</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1.3077</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1297489</v>
@@ -3196,10 +3194,10 @@
         <v>4131471</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1.3115</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>5418545</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1.3115</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>1299981</v>
@@ -3218,10 +3216,10 @@
         <v>3933029</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1.3474</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>5299450</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1.3474</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1281793</v>
@@ -3240,10 +3238,10 @@
         <v>3912069</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1.2651</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>4949305</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1.2651</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1236335</v>
@@ -3262,10 +3260,10 @@
         <v>3922698</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1.2579</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>4934516</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1.2579</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1201277</v>
@@ -3284,10 +3282,10 @@
         <v>3716932</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1.2288</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>4567445</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1.2288</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>1048656</v>
@@ -3306,10 +3304,10 @@
         <v>3770282</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1.2368</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>4663162</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1.2368</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>992484</v>
@@ -3328,10 +3326,10 @@
         <v>3850100</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1.2143</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>4675231</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1.2143</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1032316</v>
@@ -3350,10 +3348,10 @@
         <v>3772563</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1.2633</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>4766039</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1.2633</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>1008222</v>
@@ -3372,10 +3370,10 @@
         <v>3868631</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1.2644</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>4891492</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1.2644</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>1016030</v>
@@ -3393,10 +3391,10 @@
         <v>3824271</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1.2006</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>4591419</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1.2006</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>955939</v>
@@ -3414,10 +3412,10 @@
         <v>3793642</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1.1481</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>4355623</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1.1481</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>959214</v>
@@ -3435,10 +3433,10 @@
         <v>3881604</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1.2007</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>4660800</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1.2007</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>1010725</v>
@@ -3456,10 +3454,10 @@
         <v>3898911</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>4265306</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1.094</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>903645</v>
@@ -3477,10 +3475,10 @@
         <v>3558850</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1.1059</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>3935801</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1.1059</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>862139</v>
@@ -3498,10 +3496,10 @@
         <v>3398156</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1.0517</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>3573808</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1.0517</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>831847</v>
@@ -3788,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3884,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3912,7 +3910,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3954,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3968,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Pakistán</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3982,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>United Republic of Tanzania</t>
+          <t>República Unida de Tanzanía</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4010,7 +4008,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Democratic People's Republic of Korea</t>
+          <t>República Popular Democrática de Corea</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4024,43 +4022,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>18232.75</v>
+        <v>1132294.55</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.003026715158939428</v>
+        <v>0.1879657801960482</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>1114061.8</v>
+        <v>6023939.83</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.1849390650371087</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>6023939.83</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4071,41 +4061,40 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="12" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="35" t="n"/>
+      <c r="C28" s="33" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="35" t="n"/>
+      <c r="C29" s="33" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="35" t="n"/>
+      <c r="C30" s="33" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="35" t="n"/>
+      <c r="C31" s="33" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="35" t="n"/>
+      <c r="C32" s="33" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="35" t="n"/>
+      <c r="C33" s="33" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="35" t="n"/>
+      <c r="C34" s="33" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4127,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4226,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4268,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4282,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4296,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4324,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>United Republic of Tanzania</t>
+          <t>República Unida de Tanzanía</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4338,7 +4327,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4366,44 +4355,36 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>1216.75</v>
+        <v>614590.1899999999</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.0005206990463117199</v>
+        <v>0.2630092671506379</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>613373.4399999999</v>
+        <v>2336762.49</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.2624885681043262</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
       <c r="F23" s="25" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>2336762.49</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="F24" s="25" t="n"/>
     </row>
@@ -4415,126 +4396,126 @@
       <c r="F25" s="25" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
-      <c r="C26" s="29" t="n"/>
-      <c r="D26" s="36" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="B26" s="13" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="35" t="n"/>
+      <c r="E26" s="25" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="37" t="n"/>
+      <c r="D27" s="35" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="37" t="n"/>
+      <c r="D28" s="35" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="37" t="n"/>
+      <c r="D29" s="35" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="37" t="n"/>
+      <c r="D30" s="35" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="37" t="n"/>
+      <c r="D31" s="35" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="37" t="n"/>
+      <c r="D32" s="35" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="37" t="n"/>
+      <c r="D33" s="35" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="37" t="n"/>
+      <c r="D34" s="35" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="37" t="n"/>
+      <c r="D35" s="35" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="37" t="n"/>
+      <c r="D36" s="35" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="38" t="n"/>
+      <c r="D37" s="36" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="38" t="n"/>
+      <c r="D38" s="36" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="38" t="n"/>
+      <c r="D39" s="36" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="38" t="n"/>
+      <c r="D40" s="36" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="38" t="n"/>
+      <c r="D41" s="36" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="38" t="n"/>
+      <c r="D42" s="36" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="38" t="n"/>
+      <c r="D43" s="36" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="38" t="n"/>
+      <c r="D44" s="36" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="38" t="n"/>
+      <c r="D45" s="36" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4556,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4652,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4666,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4680,7 +4661,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Bélgica</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4694,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Polonia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4722,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Emiratos Árabes Unidos</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4736,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4764,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4778,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4792,43 +4773,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>2635.15</v>
+        <v>896160.1600000001</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.001229332648130969</v>
+        <v>0.4180706762963295</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>893525.0100000002</v>
+        <v>2143561.39</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.4168413436481986</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>2143561.39</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4838,60 +4811,59 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
-      <c r="C26" s="33" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="B26" s="15" t="n"/>
+      <c r="C26" s="37" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="39" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="39" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="39" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="39" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="39" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="39" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="39" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="39" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="39" t="n"/>
-      <c r="D35" s="38" t="n"/>
+      <c r="C35" s="37" t="n"/>
+      <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="39" t="n"/>
-      <c r="D36" s="38" t="n"/>
+      <c r="C36" s="37" t="n"/>
+      <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4960,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5039,10 +5011,10 @@
         <v>1052685</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2.1818</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2296700</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2.1818</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>181916.96</v>
@@ -5061,10 +5033,10 @@
         <v>1043560</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2.0968</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2188100</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2.0968</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>161270.01</v>
@@ -5083,10 +5055,10 @@
         <v>1012920</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2.1005</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2127600</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2.1005</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>148038.66</v>
@@ -5105,10 +5077,10 @@
         <v>1013860</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2.1048</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2134000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2.1048</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>88362.09</v>
@@ -5127,10 +5099,10 @@
         <v>1026550</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2.5441</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2611610</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2.5441</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>153947.03</v>
@@ -5149,10 +5121,10 @@
         <v>1003250</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2.2337</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2241000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2.2337</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>129291.36</v>
@@ -5171,10 +5143,10 @@
         <v>1081000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2.2118</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2391000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2.2118</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>146768.88</v>
@@ -5193,10 +5165,10 @@
         <v>1153000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2.2324</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2574000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2.2324</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>134585.74</v>
@@ -5215,10 +5187,10 @@
         <v>1197000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2.2364</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2677000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2.2364</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>153113.31</v>
@@ -5237,10 +5209,10 @@
         <v>1463080</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2.0473</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2995400</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2.0473</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>173614.03</v>
@@ -5259,10 +5231,10 @@
         <v>1622800</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2.0789</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>3373700</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2.0789</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>147813</v>
@@ -5281,10 +5253,10 @@
         <v>1596540</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2.1337</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>3406500</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2.1337</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>147680</v>
@@ -5303,10 +5275,10 @@
         <v>1461400</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2.1603</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>3157000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2.1603</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>130481</v>
@@ -5325,10 +5297,10 @@
         <v>1345000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>2.2335</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>3004000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>2.2335</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>89626</v>
@@ -5347,10 +5319,10 @@
         <v>1391000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>2.2042</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>3066000</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>2.2042</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>105032</v>
@@ -5369,10 +5341,10 @@
         <v>1326000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>2.1404</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>2838222</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>2.1404</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>104847</v>
@@ -5391,10 +5363,10 @@
         <v>1163800</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>2.0583</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>2395480</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>2.0583</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>84421</v>
@@ -5413,10 +5385,10 @@
         <v>1338000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>2.0508</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>2744000</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>2.0508</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>82390</v>
@@ -5435,10 +5407,10 @@
         <v>1363200</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.9682</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>2683000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.9682</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>69404</v>
@@ -5457,10 +5429,10 @@
         <v>1265600</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.9011</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>2406000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.9011</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>45759</v>
@@ -5479,10 +5451,10 @@
         <v>1264500</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1.7852</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>2257415</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1.7852</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>54868</v>
@@ -5501,10 +5473,10 @@
         <v>1327800</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1.8425</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>2446527</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1.8425</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>46805</v>
@@ -5523,10 +5495,10 @@
         <v>1339440</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1.7542</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>2349627</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1.7542</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>56698</v>
@@ -5545,10 +5517,10 @@
         <v>1437390</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1.7757</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>2552344</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1.7757</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>37910.85</v>
@@ -5567,10 +5539,10 @@
         <v>1373700</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1.7973</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>2469000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1.7973</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>10480</v>
@@ -5589,10 +5561,10 @@
         <v>1361120</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1.7368</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>2364006</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1.7368</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>6708</v>
@@ -5611,10 +5583,10 @@
         <v>2353000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1.8066</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>4251000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1.8066</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>15135</v>
@@ -5633,10 +5605,10 @@
         <v>1853000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1.7453</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>3234000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1.7453</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>13646</v>
@@ -5655,10 +5627,10 @@
         <v>1470000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1.5741</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>2314000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1.5741</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>8557</v>
@@ -5677,10 +5649,10 @@
         <v>1489750</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1.5023</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>2238000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1.5023</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>8733</v>
@@ -5699,10 +5671,10 @@
         <v>2089000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1.652</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>3451000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1.652</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>14530</v>
@@ -5721,10 +5693,10 @@
         <v>2092900</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1.6716</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>3498561</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1.6716</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>21159</v>
@@ -5743,10 +5715,10 @@
         <v>1804670</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1.6795</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>3031000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1.6795</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>14700</v>
@@ -5765,10 +5737,10 @@
         <v>1592600</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1.6496</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2627082</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1.6496</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>13236</v>
@@ -5787,10 +5759,10 @@
         <v>1798000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1.5742</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2830353</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1.5742</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>20670</v>
@@ -5809,10 +5781,10 @@
         <v>1554667</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1.7586</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>2734000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1.7586</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>37379</v>
@@ -5831,10 +5803,10 @@
         <v>1128000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1.7225</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1943000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1.7225</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>26127</v>
@@ -5853,10 +5825,10 @@
         <v>1124200</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1.5185</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1707142</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1.5185</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>16507</v>
@@ -5875,10 +5847,10 @@
         <v>1313000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1.8468</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2424849</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1.8468</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>28975</v>
@@ -5897,10 +5869,10 @@
         <v>897000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1.9944</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1789000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1.9944</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>15984</v>
@@ -5919,10 +5891,10 @@
         <v>766960</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1.8001</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1380600</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1.8001</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>10510</v>
@@ -5941,10 +5913,10 @@
         <v>1124000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1.9386</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>2179000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1.9386</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>30000</v>
@@ -5963,10 +5935,10 @@
         <v>757000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1.9775</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1497000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1.9775</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>42600</v>
@@ -5985,10 +5957,10 @@
         <v>512000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1.7578</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>900000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1.7578</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>16100</v>
@@ -6007,10 +5979,10 @@
         <v>625000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1.5062</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>941400</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1.5062</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1800</v>
@@ -6029,10 +6001,10 @@
         <v>783000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1.5862</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1242000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1.5862</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>2000</v>
@@ -6051,10 +6023,10 @@
         <v>700000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>987000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1.41</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6073,10 +6045,10 @@
         <v>667000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1.4543</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>970000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1.4543</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6095,10 +6067,10 @@
         <v>565000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1.6991</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>960000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1.6991</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6117,10 +6089,10 @@
         <v>471000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2.0892</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>984000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>2.0892</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1000</v>
@@ -6139,10 +6111,10 @@
         <v>444000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>2.1396</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>950000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>2.1396</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>600</v>
@@ -6161,10 +6133,10 @@
         <v>422000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1.9905</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>840000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1.9905</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>300</v>
@@ -6183,10 +6155,10 @@
         <v>392000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>2.0026</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>785000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>2.0026</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>4000</v>
@@ -6205,10 +6177,10 @@
         <v>383000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2.0496</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>785000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2.0496</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>4100</v>
@@ -6227,10 +6199,10 @@
         <v>399000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>1.9439</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>775600</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>1.9439</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>4400</v>
@@ -6249,10 +6221,10 @@
         <v>401000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>2.1152</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>848200</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>2.1152</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>5500</v>
@@ -6271,10 +6243,10 @@
         <v>500000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1.6964</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>848200</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1.6964</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>6700</v>
@@ -6292,10 +6264,10 @@
         <v>467000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>1.6899</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>789200</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>1.6899</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>4900</v>
@@ -6313,10 +6285,10 @@
         <v>399800</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1.5008</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>600000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1.5008</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6334,10 +6306,10 @@
         <v>400000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1.375</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>550000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1.375</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>3572</v>
@@ -6355,10 +6327,10 @@
         <v>380000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1.2632</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>480000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1.2632</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>3200</v>
@@ -6376,10 +6348,10 @@
         <v>340000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1.2353</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>420000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1.2353</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6397,10 +6369,10 @@
         <v>310000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1.2258</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>380000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1.2258</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6736,7 +6708,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6815,10 +6787,10 @@
         <v>422115</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1.8234</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>769671.49</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1.8234</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2446.68</v>
@@ -6837,10 +6809,10 @@
         <v>422377</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1.8085</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>763888.03</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1.8085</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>3796.88</v>
@@ -6859,10 +6831,10 @@
         <v>422642</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1.7937</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>758104.58</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1.7937</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>7118.25</v>
@@ -6881,10 +6853,10 @@
         <v>423136</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1.7752</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>751134.73</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1.7752</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>7906.19</v>
@@ -6903,10 +6875,10 @@
         <v>425736</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1.7543</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>746861.05</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1.7543</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>2812.43</v>
@@ -6925,10 +6897,10 @@
         <v>427979</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1.7385</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>744046.46</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1.7385</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2235.88</v>
@@ -6947,10 +6919,10 @@
         <v>431801</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>744410.42</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1.724</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1567.94</v>
@@ -6969,10 +6941,10 @@
         <v>435530</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1.7174</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>747976.54</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1.7174</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2847.82</v>
@@ -6991,10 +6963,10 @@
         <v>430962</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1.7125</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>738029.0699999999</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1.7125</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1986.19</v>
@@ -7013,10 +6985,10 @@
         <v>424511</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1.6947</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>719419.96</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1.6947</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1814.57</v>
@@ -7035,10 +7007,10 @@
         <v>445873</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.7161</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>765153.8199999999</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.7161</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1152</v>
@@ -7057,10 +7029,10 @@
         <v>460000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.7826</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>820000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.7826</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>3170</v>
@@ -7079,10 +7051,10 @@
         <v>490000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1.6939</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>830000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1.6939</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1648</v>
@@ -7101,10 +7073,10 @@
         <v>444280</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1.5531</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>690000</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1.5531</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>590</v>
@@ -7123,10 +7095,10 @@
         <v>390690</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.5942</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>622830</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.5942</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1075</v>
@@ -7145,10 +7117,10 @@
         <v>350000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>490000</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.4</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>909</v>
@@ -7167,10 +7139,10 @@
         <v>370000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.4054</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>520000</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.4054</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>928</v>
@@ -7189,10 +7161,10 @@
         <v>372800</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.4812</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>552200</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.4812</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>1273</v>
@@ -7211,10 +7183,10 @@
         <v>366500</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.4982</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>549100</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.4982</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1152</v>
@@ -7233,10 +7205,10 @@
         <v>369700</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.4874</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>549900</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.4874</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>910</v>
@@ -7255,10 +7227,10 @@
         <v>330000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1.4848</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>490000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1.4848</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1029</v>
@@ -7277,10 +7249,10 @@
         <v>350000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1.5714</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>550000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1.5714</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1291</v>
@@ -7299,10 +7271,10 @@
         <v>260000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1.3077</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>340000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1.3077</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>590</v>
@@ -7321,10 +7293,10 @@
         <v>433400</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1.1998</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>520000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1.1998</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1423</v>
@@ -7343,10 +7315,10 @@
         <v>508100</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1.4489</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>736200</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1.4489</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>981.27</v>
@@ -7365,10 +7337,10 @@
         <v>464000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1.3922</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>646000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1.3922</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>2666</v>
@@ -7387,10 +7359,10 @@
         <v>428000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1.4439</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>618000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1.4439</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>291</v>
@@ -7409,10 +7381,10 @@
         <v>394000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1.3584</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>535200</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1.3584</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>431</v>
@@ -7431,10 +7403,10 @@
         <v>381000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1.4874</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>566700</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1.4874</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>409</v>
@@ -7453,10 +7425,10 @@
         <v>384800</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1.4628</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>562900</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1.4628</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>143</v>
@@ -7475,10 +7447,10 @@
         <v>418500</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1.4253</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>596500</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1.4253</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>136</v>
@@ -7497,10 +7469,10 @@
         <v>427000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1.3686</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>584400</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1.3686</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>98</v>
@@ -7519,10 +7491,10 @@
         <v>410800</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1.3532</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>555900</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1.3532</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>71</v>
@@ -7541,10 +7513,10 @@
         <v>413100</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1.3353</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>551600</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1.3353</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>38</v>
@@ -7563,10 +7535,10 @@
         <v>377000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1.3072</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>492800</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1.3072</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>58</v>
@@ -7585,10 +7557,10 @@
         <v>318000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1.1553</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>367400</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1.1553</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>125</v>
@@ -7607,10 +7579,10 @@
         <v>389200</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1.1865</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>461800</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1.1865</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>667</v>
@@ -7629,10 +7601,10 @@
         <v>397000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1.1113</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>441200</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1.1113</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>9</v>
@@ -7651,10 +7623,10 @@
         <v>436600</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1.1129</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>485900</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1.1129</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7673,10 +7645,10 @@
         <v>439700</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1.1201</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>492500</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1.1201</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>30</v>
@@ -7695,10 +7667,10 @@
         <v>502700</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1.157</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>581600</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1.157</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>141</v>
@@ -7717,10 +7689,10 @@
         <v>443800</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1.1719</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>520100</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1.1719</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>14</v>
@@ -7739,10 +7711,10 @@
         <v>451500</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1.0649</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>480800</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1.0649</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>5</v>
@@ -7761,10 +7733,10 @@
         <v>425400</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1.0308</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>438500</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1.0308</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>88</v>
@@ -7783,10 +7755,10 @@
         <v>409300</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1.1087</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>453800</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1.1087</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>23</v>
@@ -7805,10 +7777,10 @@
         <v>504400</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.9786</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>493600</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.9786</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>142</v>
@@ -7827,10 +7799,10 @@
         <v>432400</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.9685</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>418800</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.9685</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>112</v>
@@ -7849,10 +7821,10 @@
         <v>368200</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>349800</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.95</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>161</v>
@@ -7871,10 +7843,10 @@
         <v>380600</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>363100</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.954</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>100</v>
@@ -7893,10 +7865,10 @@
         <v>461500</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1.0013</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>462100</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1.0013</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>70</v>
@@ -7915,10 +7887,10 @@
         <v>444900</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.8366</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>372200</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.8366</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>161</v>
@@ -7937,10 +7909,10 @@
         <v>458300</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>418900</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.914</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>161</v>
@@ -7959,10 +7931,10 @@
         <v>446900</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.8098</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>361900</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.8098</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>59</v>
@@ -7981,10 +7953,10 @@
         <v>437900</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.7697999999999999</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>337100</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.7697999999999999</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>32</v>
@@ -8003,10 +7975,10 @@
         <v>439800</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.8208</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>361000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.8208</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>313</v>
@@ -8025,10 +7997,10 @@
         <v>423500</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.8706</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>368700</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.8706</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>330</v>
@@ -8047,10 +8019,10 @@
         <v>423500</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.8345</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>353400</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.8345</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>700</v>
@@ -8068,10 +8040,10 @@
         <v>377000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.7772</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>293000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.7772</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>93</v>
@@ -8089,10 +8061,10 @@
         <v>394000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.8782000000000001</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>346000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.8782000000000001</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>79</v>
@@ -8110,10 +8082,10 @@
         <v>441000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.8162999999999999</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>360000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.8162999999999999</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>764</v>
@@ -8131,10 +8103,10 @@
         <v>405000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>341000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.842</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>551</v>
@@ -8152,10 +8124,10 @@
         <v>418000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>339000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.8110000000000001</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1076</v>
@@ -8173,10 +8145,10 @@
         <v>401000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.7656000000000001</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>307000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.7656000000000001</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>901</v>
@@ -8512,7 +8484,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8591,10 +8563,10 @@
         <v>325408</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2.1003</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>683469</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2.1003</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>16627.35</v>
@@ -8613,10 +8585,10 @@
         <v>325234</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2.0516</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>667238</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2.0516</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>15881.15</v>
@@ -8635,10 +8607,10 @@
         <v>349389</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2.1299</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>744173</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2.1299</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>7565.59</v>
@@ -8657,10 +8629,10 @@
         <v>353652</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1.9871</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>702728</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1.9871</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>6739.65</v>
@@ -8679,10 +8651,10 @@
         <v>361827</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2.1275</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>769801</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2.1275</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>5536.82</v>
@@ -8701,10 +8673,10 @@
         <v>356212</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2.123</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>756232</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2.123</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>7244.67</v>
@@ -8723,10 +8695,10 @@
         <v>391188</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2.2128</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>865620</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2.2128</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>9148.24</v>
@@ -8745,10 +8717,10 @@
         <v>376503</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1.7994</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>677472</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1.7994</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>12594.52</v>
@@ -8767,10 +8739,10 @@
         <v>405881</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2.137</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>867355</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2.137</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>7610.68</v>
@@ -8789,10 +8761,10 @@
         <v>415842</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2.0739</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>862396</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2.0739</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>7981.6</v>
@@ -8811,10 +8783,10 @@
         <v>405253</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2.0991</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>850673</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2.0991</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>11406</v>
@@ -8833,10 +8805,10 @@
         <v>410225</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.9759</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>810550</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.9759</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>10122</v>
@@ -8855,10 +8827,10 @@
         <v>454501</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2.0945</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>951933</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2.0945</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>10348</v>
@@ -8877,10 +8849,10 @@
         <v>449629</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1.7521</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>787817</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1.7521</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>20511</v>
@@ -8899,10 +8871,10 @@
         <v>442397</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.9509</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>863079</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.9509</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>15630</v>
@@ -8921,10 +8893,10 @@
         <v>432182</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.9692</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>851058</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.9692</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>14311</v>
@@ -8943,10 +8915,10 @@
         <v>459481</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.9776</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>908679</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.9776</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>12357</v>
@@ -8965,10 +8937,10 @@
         <v>495706</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.8164</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>900381</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.8164</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>10119</v>
@@ -8987,10 +8959,10 @@
         <v>493761</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.8013</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>889426</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.8013</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>7900</v>
@@ -9009,10 +8981,10 @@
         <v>462265</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.993</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>921281</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.993</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>7476</v>
@@ -9031,10 +9003,10 @@
         <v>392619</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1.6713</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>656200</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1.6713</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>10802</v>
@@ -9053,10 +9025,10 @@
         <v>344080</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1.9481</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>670309</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1.9481</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>10525</v>
@@ -9075,10 +9047,10 @@
         <v>302559</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>568505</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1.879</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>8962</v>
@@ -9097,10 +9069,10 @@
         <v>310462</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1.8673</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>579727</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1.8673</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>6942.37</v>
@@ -9119,10 +9091,10 @@
         <v>341591</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>1.8429</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>629525</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>1.8429</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>2647</v>
@@ -9141,10 +9113,10 @@
         <v>353679</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>1.4288</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>505353</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>1.4288</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>14726</v>
@@ -9163,10 +9135,10 @@
         <v>338059</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>1.7658</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>596952</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>1.7658</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>18967</v>
@@ -9185,10 +9157,10 @@
         <v>317279</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>1.5023</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>476638</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>1.5023</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>17354</v>
@@ -9207,10 +9179,10 @@
         <v>293425</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>455986</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>1.554</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>15703</v>
@@ -9229,10 +9201,10 @@
         <v>320185</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>1.6226</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>519541</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>1.6226</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>9155</v>
@@ -9251,10 +9223,10 @@
         <v>372912</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>1.7584</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>655739</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>1.7584</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>5865</v>
@@ -9273,10 +9245,10 @@
         <v>344872</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>1.6692</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>575652</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>1.6692</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>9818</v>
@@ -9295,10 +9267,10 @@
         <v>287266</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>1.4406</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>413831</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>1.4406</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>6025</v>
@@ -9317,10 +9289,10 @@
         <v>274098</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>1.6253</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>445489</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>1.6253</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>31</v>
@@ -9339,10 +9311,10 @@
         <v>287001</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>1.5466</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>443869</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>1.5466</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1583</v>
@@ -9361,10 +9333,10 @@
         <v>278953</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>1.534</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>427900</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>1.534</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>111</v>
@@ -9383,10 +9355,10 @@
         <v>294093</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1.3453</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>395645</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1.3453</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>37</v>
@@ -9405,10 +9377,10 @@
         <v>276185</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1.3945</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>385136</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1.3945</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>70</v>
@@ -9427,10 +9399,10 @@
         <v>268992</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>410474</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>1.526</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>57</v>
@@ -9449,10 +9421,10 @@
         <v>282218</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1.4655</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>413598</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1.4655</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>33</v>
@@ -9471,10 +9443,10 @@
         <v>311759</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1.2592</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>392578</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1.2592</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>652</v>
@@ -9493,10 +9465,10 @@
         <v>317231</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>420329</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1.325</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>377</v>
@@ -9515,10 +9487,10 @@
         <v>297564</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1.2291</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>365738</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1.2291</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>246</v>
@@ -9537,10 +9509,10 @@
         <v>316427</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1.2795</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>404860</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1.2795</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>345</v>
@@ -9559,10 +9531,10 @@
         <v>326049</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1.2934</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>421708</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1.2934</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>330</v>
@@ -9581,10 +9553,10 @@
         <v>328313</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1.2342</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>405191</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1.2342</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>267</v>
@@ -9603,10 +9575,10 @@
         <v>311386</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1.1465</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>356999</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1.1465</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>198</v>
@@ -9625,10 +9597,10 @@
         <v>280373</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1.0652</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>298645</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1.0652</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>2376</v>
@@ -9647,10 +9619,10 @@
         <v>253736</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1.1269</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>285934</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1.1269</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>400</v>
@@ -9669,10 +9641,10 @@
         <v>240976</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1.2291</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>296175</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1.2291</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1716</v>
@@ -9691,10 +9663,10 @@
         <v>235245</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.9959</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>234280</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.9959</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>340</v>
@@ -9713,10 +9685,10 @@
         <v>251269</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1.0474</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>263168</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1.0474</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>159</v>
@@ -9735,10 +9707,10 @@
         <v>241323</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1.0118</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>244172</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1.0118</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>16</v>
@@ -9757,10 +9729,10 @@
         <v>245207</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.9951</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>244000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.9951</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>9</v>
@@ -9779,10 +9751,10 @@
         <v>258128</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.9693999999999999</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>250224</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.9693999999999999</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>9</v>
@@ -9801,10 +9773,10 @@
         <v>275654</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>258019</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.9360000000000001</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>4</v>
@@ -9823,10 +9795,10 @@
         <v>260768</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.9312</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>242817</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.9312</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>4</v>
@@ -9844,10 +9816,10 @@
         <v>264967</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.8616</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>228284</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.8616</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>6</v>
@@ -9865,10 +9837,10 @@
         <v>273849</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.9063</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>248182</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.9063</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>3</v>
@@ -9886,10 +9858,10 @@
         <v>250505</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>210427</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.84</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>2</v>
@@ -9907,10 +9879,10 @@
         <v>250402</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.8259</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>206806</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.8259</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>4</v>
@@ -9928,10 +9900,10 @@
         <v>232297</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.8052</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>187040</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.8052</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>4</v>
@@ -9949,10 +9921,10 @@
         <v>227656</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.7372000000000001</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>167839</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.7372000000000001</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>4</v>
@@ -10288,7 +10260,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10367,10 +10339,10 @@
         <v>191816</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1.245</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>238806</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1.245</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>129140.8</v>
@@ -10389,10 +10361,10 @@
         <v>182018</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1.2192</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>221925.05</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1.2192</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>140920.15</v>
@@ -10411,10 +10383,10 @@
         <v>219082</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1.1198</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>245338</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1.1198</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>116931.29</v>
@@ -10433,10 +10405,10 @@
         <v>219773</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1.1877</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>261017</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1.1877</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>110275</v>
@@ -10455,10 +10427,10 @@
         <v>236489</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1.1409</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>269803.46</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1.1409</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>103561.26</v>
@@ -10477,10 +10449,10 @@
         <v>204509</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>0.9559</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>195482</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>0.9559</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>121389.52</v>
@@ -10499,10 +10471,10 @@
         <v>201909</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>0.8971</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>181142</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>0.8971</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>168060.2</v>
@@ -10521,10 +10493,10 @@
         <v>155950</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>0.8126</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>126728</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>0.8126</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>81501.88</v>
@@ -10543,10 +10515,10 @@
         <v>209095</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>0.9268</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>193790</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>0.9268</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>75353.05</v>
@@ -10565,10 +10537,10 @@
         <v>209400</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>0.9374</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>196300</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>0.9374</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>95731.97</v>
@@ -10587,10 +10559,10 @@
         <v>270200</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>260200</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>0.963</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>121218</v>
@@ -10609,10 +10581,10 @@
         <v>270300</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>0.9649</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>260800</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>0.9649</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>137426</v>
@@ -10631,10 +10603,10 @@
         <v>228800</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>0.9379</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>214600</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>0.9379</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>106570</v>
@@ -10653,10 +10625,10 @@
         <v>216300</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>0.6274</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>135700</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>0.6274</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>65685</v>
@@ -10675,10 +10647,10 @@
         <v>204450</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>0.8633</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>176510</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>0.8633</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>53198</v>
@@ -10697,10 +10669,10 @@
         <v>196627</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>0.8546</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>168037</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>0.8546</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>77302</v>
@@ -10719,10 +10691,10 @@
         <v>198054</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>0.8324</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>164851</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>0.8324</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>61687</v>
@@ -10741,10 +10713,10 @@
         <v>172234</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>0.8492000000000001</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>146265</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>0.8492000000000001</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>48287</v>
@@ -10763,10 +10735,10 @@
         <v>198212</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>0.7743</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>153470</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>0.7743</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>42031</v>
@@ -10785,10 +10757,10 @@
         <v>200973</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>0.8215</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>165108</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>0.8215</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>35171</v>
@@ -10807,10 +10779,10 @@
         <v>256926</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>0.7817999999999999</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>200875</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>0.7817999999999999</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>29579</v>
@@ -10829,10 +10801,10 @@
         <v>256081</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>0.7501</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>192083</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>0.7501</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>33289</v>
@@ -10851,10 +10823,10 @@
         <v>262000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>0.7599</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>199103</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>0.7599</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>44347</v>
@@ -10873,10 +10845,10 @@
         <v>168300</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>1.2141</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>204329</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>1.2141</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>34247.82</v>
@@ -10895,10 +10867,10 @@
         <v>167271</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>138000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>0.825</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>40913</v>
@@ -10917,10 +10889,10 @@
         <v>174079</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>0.7902</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>137564</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>0.7902</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>17152</v>
@@ -10939,10 +10911,10 @@
         <v>219262</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>0.6237</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>136746</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>0.6237</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>47108</v>
@@ -10961,10 +10933,10 @@
         <v>222164</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>0.6798</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>151025</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>0.6798</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>45060</v>
@@ -10983,10 +10955,10 @@
         <v>216148</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>0.6485</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>140169</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>0.6485</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>47954</v>
@@ -11005,10 +10977,10 @@
         <v>182293</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>0.7139</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>130134</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>0.7139</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>40322</v>
@@ -11027,10 +10999,10 @@
         <v>167932</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>0.7227</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>121370</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>0.7227</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>30226</v>
@@ -11049,10 +11021,10 @@
         <v>166847</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>0.6692</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>111655</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>0.6692</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>25108</v>
@@ -11071,10 +11043,10 @@
         <v>214838</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>140283</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>0.653</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>28543</v>
@@ -11093,10 +11065,10 @@
         <v>235866</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>0.6632</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>156432</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>0.6632</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>26545</v>
@@ -11115,10 +11087,10 @@
         <v>183794</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>0.4406</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>80979</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>0.4406</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>13600</v>
@@ -11137,10 +11109,10 @@
         <v>187432</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>0.6237999999999999</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>116917</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>0.6237999999999999</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>10511</v>
@@ -11159,10 +11131,10 @@
         <v>211432</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>112691</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>0.533</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>11541</v>
@@ -11181,10 +11153,10 @@
         <v>198842</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>0.5091</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>101235</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>0.5091</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>9824</v>
@@ -11203,10 +11175,10 @@
         <v>288118</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>160765</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>0.5580000000000001</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>10332</v>
@@ -11225,10 +11197,10 @@
         <v>156606</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>0.6885</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>107825</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>0.6885</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>13475</v>
@@ -11247,10 +11219,10 @@
         <v>201294</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>0.5438999999999999</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>109484</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>0.5438999999999999</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>13525</v>
@@ -11269,10 +11241,10 @@
         <v>210026</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>0.5085</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>106802</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>0.5085</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>16554</v>
@@ -11291,10 +11263,10 @@
         <v>204026</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>0.5374</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>109646</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>0.5374</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>21612</v>
@@ -11313,10 +11285,10 @@
         <v>141225</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>0.6052999999999999</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>85487</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>0.6052999999999999</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>19985</v>
@@ -11335,10 +11307,10 @@
         <v>208468</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>0.5771000000000001</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>120299</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>0.5771000000000001</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>13098</v>
@@ -11357,10 +11329,10 @@
         <v>175557</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>0.4697</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>82466</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>0.4697</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>11866</v>
@@ -11379,10 +11351,10 @@
         <v>188370</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>0.4486</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>84502</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>0.4486</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>9435</v>
@@ -11401,10 +11373,10 @@
         <v>198608</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>0.4521</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>89798</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>0.4521</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>9392</v>
@@ -11423,10 +11395,10 @@
         <v>198657</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>0.4816</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>95665</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>0.4816</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>9529</v>
@@ -11445,10 +11417,10 @@
         <v>175046</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>78071</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>0.446</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>15418</v>
@@ -11467,10 +11439,10 @@
         <v>175723</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>0.4354</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>76507</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>0.4354</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>5216</v>
@@ -11489,10 +11461,10 @@
         <v>175510</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>0.7211000000000001</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>126558</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>0.7211000000000001</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>7832</v>
@@ -11511,10 +11483,10 @@
         <v>135212</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>0.4242</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>57352</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>0.4242</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>4755</v>
@@ -11533,10 +11505,10 @@
         <v>170044</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>0.4509</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>76666</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>0.4509</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>3950</v>
@@ -11555,10 +11527,10 @@
         <v>223300</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>0.3995</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>89200</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>0.3995</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>26146</v>
@@ -11577,10 +11549,10 @@
         <v>151100</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>0.3971</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>60000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>0.3971</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>23616</v>
@@ -11599,10 +11571,10 @@
         <v>144500</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>0.4152</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>60000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>0.4152</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11620,10 +11592,10 @@
         <v>167300</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>0.4172</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>69800</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>0.4172</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11641,10 +11613,10 @@
         <v>179300</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>0.4373</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>78400</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>0.4373</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11662,10 +11634,10 @@
         <v>146700</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>0.3299</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>48400</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>0.3299</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11683,10 +11655,10 @@
         <v>304500</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.3084</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>93900</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.3084</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>895</v>
@@ -11704,10 +11676,10 @@
         <v>188500</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>0.4329</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>81600</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>0.4329</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1430</v>
@@ -11725,10 +11697,10 @@
         <v>223900</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>0.3832</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>85800</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>0.3832</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>1526</v>
@@ -12064,7 +12036,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12143,10 +12115,10 @@
         <v>136126</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1.7397</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>236815</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1.7397</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>9515.780000000001</v>
@@ -12165,10 +12137,10 @@
         <v>154023</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1.2649</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>194828.2</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1.2649</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>5296.27</v>
@@ -12187,10 +12159,10 @@
         <v>99029</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>1.6396</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>162370</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>1.6396</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>5166.15</v>
@@ -12209,10 +12181,10 @@
         <v>104759</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>1.9424</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>203488</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>1.9424</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>5499.08</v>
@@ -12231,10 +12203,10 @@
         <v>97138</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>1.9002</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>184584</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>1.9002</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1819.61</v>
@@ -12253,10 +12225,10 @@
         <v>136412</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>1.7587</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>239906</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>1.7587</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>7998.54</v>
@@ -12275,10 +12247,10 @@
         <v>118967</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>0.9315</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>110816</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>0.9315</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>5271.42</v>
@@ -12297,10 +12269,10 @@
         <v>102537</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1.6479</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>168974</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1.6479</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3441.71</v>
@@ -12319,10 +12291,10 @@
         <v>132126</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1.2948</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>171083.17</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1.2948</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1720.46</v>
@@ -12341,10 +12313,10 @@
         <v>128668</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1.4301</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>184003.36</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1.4301</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>15440.72</v>
@@ -12363,10 +12335,10 @@
         <v>125717</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1.1698</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>147068.07</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1.1698</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>19180</v>
@@ -12385,10 +12357,10 @@
         <v>92705</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1.5013</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>139179.15</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1.5013</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>43301</v>
@@ -12407,10 +12379,10 @@
         <v>117287</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1.0662</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>125056</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1.0662</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>29585</v>
@@ -12429,10 +12401,10 @@
         <v>94175</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1.1652</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>109737</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1.1652</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>119184</v>
@@ -12451,10 +12423,10 @@
         <v>93000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1.356</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>126106.64</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1.356</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>8332</v>
@@ -12473,10 +12445,10 @@
         <v>77483</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1.4116</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>109376.03</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1.4116</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>9536</v>
@@ -12495,10 +12467,10 @@
         <v>75202</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>1.387</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>104303</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>1.387</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>30000</v>
@@ -12517,10 +12489,10 @@
         <v>38865</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1.1437</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>44451</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1.1437</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>34850</v>
@@ -12539,10 +12511,10 @@
         <v>51167</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1.6266</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>83230</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1.6266</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>24660</v>
@@ -12561,10 +12533,10 @@
         <v>55584</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1.4089</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>78312</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1.4089</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>25230</v>
@@ -12583,10 +12555,10 @@
         <v>47293</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1.9773</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>93514</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1.9773</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>4064</v>
@@ -12605,10 +12577,10 @@
         <v>55588</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>2.0442</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>113635</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>2.0442</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1034</v>
@@ -12627,10 +12599,10 @@
         <v>67108</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>159853</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>2.382</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>578</v>
@@ -12649,10 +12621,10 @@
         <v>76486</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>2.4873</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>190242</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>2.4873</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>4842.15</v>
@@ -12671,10 +12643,10 @@
         <v>79108</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>2.2157</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>175282</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>2.2157</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>6723</v>
@@ -12693,10 +12665,10 @@
         <v>83225</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>2.3697</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>197222</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>2.3697</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>9573</v>
@@ -12715,10 +12687,10 @@
         <v>80607</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>2.1238</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>171191</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>2.1238</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>10372</v>
@@ -12737,10 +12709,10 @@
         <v>74834</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>2.377</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>177884</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>2.377</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>11005</v>
@@ -12759,10 +12731,10 @@
         <v>72460</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>2.4655</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>178652</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>2.4655</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1018</v>
@@ -12781,10 +12753,10 @@
         <v>69389</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>2.5514</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>177039</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>2.5514</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>346</v>
@@ -12803,10 +12775,10 @@
         <v>93340</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>2.194</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>204790</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>2.194</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1421</v>
@@ -12825,10 +12797,10 @@
         <v>86875</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>2.4333</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>211394</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>2.4333</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>26</v>
@@ -12847,10 +12819,10 @@
         <v>71647</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>2.4927</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>178595</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>2.4927</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>2086</v>
@@ -12869,10 +12841,10 @@
         <v>60103</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2.1695</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>130394</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2.1695</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>2408</v>
@@ -12891,10 +12863,10 @@
         <v>57161</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2.2806</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>130361</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2.2806</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>2200</v>
@@ -12913,10 +12885,10 @@
         <v>56328</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>2.0369</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>114736</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>2.0369</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>3000</v>
@@ -12935,10 +12907,10 @@
         <v>58242</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>121320</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>2.083</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>917</v>
@@ -12957,10 +12929,10 @@
         <v>62380</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1.8669</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>116456</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1.8669</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>3048</v>
@@ -12979,10 +12951,10 @@
         <v>53868</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2.0041</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>107957</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2.0041</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>1300</v>
@@ -13001,10 +12973,10 @@
         <v>51172</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>2.4402</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>124872</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>2.4402</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>676</v>
@@ -13023,10 +12995,10 @@
         <v>47727</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>2.0734</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>98956</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>2.0734</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>951</v>
@@ -13045,10 +13017,10 @@
         <v>46632</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>1.9429</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>90602</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>1.9429</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>534</v>
@@ -13067,10 +13039,10 @@
         <v>39760</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1.8061</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>71812</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1.8061</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>669</v>
@@ -13089,10 +13061,10 @@
         <v>64068</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>1.9516</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>125038</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>1.9516</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>3267</v>
@@ -13111,10 +13083,10 @@
         <v>60413</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>1.8947</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>114464</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>1.8947</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1329</v>
@@ -13133,10 +13105,10 @@
         <v>55921</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1.5221</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>85117</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1.5221</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>526</v>
@@ -13155,10 +13127,10 @@
         <v>57716</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>1.474</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>85072</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>1.474</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>463</v>
@@ -13177,10 +13149,10 @@
         <v>66749</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>1.6886</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>112715</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>1.6886</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>198</v>
@@ -13199,10 +13171,10 @@
         <v>66631</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>1.3011</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>86695</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>1.3011</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>699</v>
@@ -13221,10 +13193,10 @@
         <v>59802</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>1.2611</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>75418</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>1.2611</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -13243,10 +13215,10 @@
         <v>49687</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>1.4857</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>73818</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>1.4857</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -13265,10 +13237,10 @@
         <v>50286</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>1.3169</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>66224</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>1.3169</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -13287,10 +13259,10 @@
         <v>45266</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>65181</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>1.44</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -13309,10 +13281,10 @@
         <v>43688</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>1.2479</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>54518</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>1.2479</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -13331,10 +13303,10 @@
         <v>46538</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>2.4089</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>112107</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>2.4089</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -13353,10 +13325,10 @@
         <v>46538</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>1.162</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>54077</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>1.162</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -13375,10 +13347,10 @@
         <v>42491</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>1.9842</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>84312</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>1.9842</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -13396,10 +13368,10 @@
         <v>46538</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>2.4254</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>112871</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>2.4254</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>1293</v>
@@ -13417,10 +13389,10 @@
         <v>87447</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1.3029</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>113936</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1.3029</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>10279</v>
@@ -13438,10 +13410,10 @@
         <v>105000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1.4099</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>148038</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1.4099</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>11566</v>
@@ -13459,10 +13431,10 @@
         <v>89216</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>82523</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>0.925</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>132</v>
@@ -13480,10 +13452,10 @@
         <v>82900</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1.1815</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>97944</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1.1815</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>230</v>
@@ -13501,10 +13473,10 @@
         <v>84319</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1.1847</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>99890</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1.1847</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>66</v>

--- a/Resultados/Mercado mundial - Tabaco sin elaborar.xlsx
+++ b/Resultados/Mercado mundial - Tabaco sin elaborar.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brasil" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Indonesia" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Zimbabwe" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="India" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Brazil" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Indonesia" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Zimbabwe" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,8 +301,10 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -406,13 +408,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +434,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +490,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +516,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$23</f>
+              <f>'Países productores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$23</f>
+              <f>'Países productores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -570,13 +572,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,21 +598,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$23</f>
+              <f>'Países exportadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$23</f>
+              <f>'Países exportadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -652,13 +654,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +680,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$23</f>
+              <f>'Países importadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$23</f>
+              <f>'Países importadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +736,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +762,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +818,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,10 +844,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -898,13 +900,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,21 +926,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Brasil'!$B$12:$B$74</f>
+              <f>'Brazil'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Brasil'!$C$12:$C$74</f>
+              <f>'Brazil'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -980,13 +982,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,10 +1008,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1062,13 +1064,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,10 +1090,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1144,7 +1146,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1164,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1204,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1216,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1234,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1274,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1286,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1304,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1344,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1356,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1374,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1414,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1426,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1441,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1463,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1478,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1493,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1515,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1530,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1545,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1567,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1582,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1597,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1619,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1634,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1649,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1671,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2012,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2061,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2140,10 @@
         <v>3222582</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>6023939.83</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1.8693</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>6023939.83</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2143561.39</v>
@@ -2160,10 +2162,10 @@
         <v>3150638</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>5772379.25</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1.8321</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>5772379.25</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>2259740.2</v>
@@ -2182,10 +2184,10 @@
         <v>3171082</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>5889104.93</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1.8571</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>5889104.93</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>2172470.93</v>
@@ -2204,10 +2206,10 @@
         <v>3181797</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>5821856.8</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1.8297</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>5821856.8</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>2144409.09</v>
@@ -2226,10 +2228,10 @@
         <v>3323932</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>6492655.01</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1.9533</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>6492655.01</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>2364779.96</v>
@@ -2248,10 +2250,10 @@
         <v>3268082</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>6047558.05</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1.8505</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>6047558.05</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2457514.31</v>
@@ -2270,10 +2272,10 @@
         <v>3379901</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>6268018.16</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1.8545</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>6268018.16</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>2451452.58</v>
@@ -2292,10 +2294,10 @@
         <v>3417991</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>6239360.99</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1.8254</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>6239360.99</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2303343.83</v>
@@ -2314,10 +2316,10 @@
         <v>3677135</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>6711625.58</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1.8252</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>6711625.58</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>2356762.96</v>
@@ -2336,10 +2338,10 @@
         <v>3969823</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>7210540.45</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1.8163</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>7210540.45</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>2444883.61</v>
@@ -2358,10 +2360,10 @@
         <v>4207547</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>7505796.29</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.7839</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>7505796.29</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2502941</v>
@@ -2380,10 +2382,10 @@
         <v>4131376</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>7490619.14</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.8131</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>7490619.14</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2637129</v>
@@ -2402,10 +2404,10 @@
         <v>4196261</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>7446143.03</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1.7745</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>7446143.03</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2441180</v>
@@ -2424,10 +2426,10 @@
         <v>3948003</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>6909739.77</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1.7502</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>6909739.77</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2514494</v>
@@ -2446,10 +2448,10 @@
         <v>3929726</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>7094659.59</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.8054</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>7094659.59</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2436812</v>
@@ -2468,10 +2470,10 @@
         <v>3792872</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>6569510.63</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.7321</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>6569510.63</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>2563161</v>
@@ -2490,10 +2492,10 @@
         <v>3632336</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>6144242.76</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.6915</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>6144242.76</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2528736</v>
@@ -2512,10 +2514,10 @@
         <v>3826744</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>6512703.69</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.7019</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>6512703.69</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2484606</v>
@@ -2534,10 +2536,10 @@
         <v>3973204</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>6721291.8</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.6917</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>6721291.8</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>2503398</v>
@@ -2556,10 +2558,10 @@
         <v>3892212</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>6558236.27</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.685</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>6558236.27</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>2544411</v>
@@ -2578,10 +2580,10 @@
         <v>3791144</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>5998454.4</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1.5822</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>5998454.4</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>2216688</v>
@@ -2600,10 +2602,10 @@
         <v>3884180</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>6409543.75</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1.6502</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>6409543.75</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>2220015</v>
@@ -2622,10 +2624,10 @@
         <v>3828158</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>6105198.77</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1.5948</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>6105198.77</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>2247502.78</v>
@@ -2644,10 +2646,10 @@
         <v>4143849</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>6686403.93</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1.6136</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>6686403.93</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>2198268.42</v>
@@ -2666,10 +2668,10 @@
         <v>4321806</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>6970718.25</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1.6129</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>6970718.25</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>2071746.21</v>
@@ -2688,10 +2690,10 @@
         <v>4386995</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>6879321.51</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1.5681</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>6879321.51</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>2082015.65</v>
@@ -2710,10 +2712,10 @@
         <v>5377923</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>8944145.93</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1.6631</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>8944145.93</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>2063269.4</v>
@@ -2732,10 +2734,10 @@
         <v>4653545</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>7393368.96</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1.5888</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>7393368.96</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>2010809.5</v>
@@ -2754,10 +2756,10 @@
         <v>4132682</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>6269765.36</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1.5171</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>6269765.36</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1749172.05</v>
@@ -2776,10 +2778,10 @@
         <v>4234714</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>6450899.74</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1.5233</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>6450899.74</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1816294.29</v>
@@ -2798,10 +2800,10 @@
         <v>5288599</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>8339436.52</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1.5769</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>8339436.52</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1684923</v>
@@ -2820,10 +2822,10 @@
         <v>5314496</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>8327260.07</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1.5669</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>8327260.07</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>1782197</v>
@@ -2842,10 +2844,10 @@
         <v>4887320</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>7555160.64</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1.5459</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>7555160.64</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>1629553</v>
@@ -2864,10 +2866,10 @@
         <v>4646018</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>7137622</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1.5363</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>7137622</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>1463339</v>
@@ -2886,10 +2888,10 @@
         <v>4796417</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>7065383</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1.4731</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>7065383</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1414040</v>
@@ -2908,10 +2910,10 @@
         <v>4527657</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>6839739</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1.5107</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>6839739</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>1337125</v>
@@ -2930,10 +2932,10 @@
         <v>4256949</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>6177934</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1.4513</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>6177934</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>1411946</v>
@@ -2952,10 +2954,10 @@
         <v>4273688</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>6007970</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1.4058</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>6007970</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>1367956</v>
@@ -2974,10 +2976,10 @@
         <v>4694860</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>7049173</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1.5015</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>7049173</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>1381415</v>
@@ -2996,10 +2998,10 @@
         <v>4204664</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>6554436</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1.5588</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>6554436</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>1433750</v>
@@ -3018,10 +3020,10 @@
         <v>4248026</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>5987773</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1.4095</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>5987773</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>1368539</v>
@@ -3040,10 +3042,10 @@
         <v>4541213</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>6948540</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1.5301</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>6948540</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>1409875</v>
@@ -3062,10 +3064,10 @@
         <v>4119047</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>5981452</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1.4521</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>5981452</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>1442227</v>
@@ -3084,10 +3086,10 @@
         <v>3897571</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>5258279</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1.3491</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>5258279</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>1409201</v>
@@ -3106,10 +3108,10 @@
         <v>4095794</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>5434050</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1.3267</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>5434050</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1393777</v>
@@ -3128,10 +3130,10 @@
         <v>4565923</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>5987651</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1.3114</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>5987651</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>1424769</v>
@@ -3150,10 +3152,10 @@
         <v>4439482</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>5582681</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1.2575</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>5582681</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>1257350</v>
@@ -3172,10 +3174,10 @@
         <v>4383880</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>5732960</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1.3077</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>5732960</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>1297489</v>
@@ -3194,10 +3196,10 @@
         <v>4131471</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>5418545</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1.3115</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>5418545</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>1299981</v>
@@ -3216,10 +3218,10 @@
         <v>3933029</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>5299450</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1.3474</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>5299450</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1281793</v>
@@ -3238,10 +3240,10 @@
         <v>3912069</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>4949305</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1.2651</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>4949305</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1236335</v>
@@ -3260,10 +3262,10 @@
         <v>3922698</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>4934516</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1.2579</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>4934516</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1201277</v>
@@ -3282,10 +3284,10 @@
         <v>3716932</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>4567445</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1.2288</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>4567445</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>1048656</v>
@@ -3304,10 +3306,10 @@
         <v>3770282</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>4663162</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1.2368</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>4663162</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>992484</v>
@@ -3326,10 +3328,10 @@
         <v>3850100</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>4675231</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1.2143</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>4675231</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>1032316</v>
@@ -3348,10 +3350,10 @@
         <v>3772563</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>4766039</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1.2633</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>4766039</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>1008222</v>
@@ -3370,10 +3372,10 @@
         <v>3868631</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>4891492</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1.2644</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>4891492</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>1016030</v>
@@ -3391,10 +3393,10 @@
         <v>3824271</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>4591419</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1.2006</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>4591419</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>955939</v>
@@ -3412,10 +3414,10 @@
         <v>3793642</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>4355623</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1.1481</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>4355623</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>959214</v>
@@ -3433,10 +3435,10 @@
         <v>3881604</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>4660800</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1.2007</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>4660800</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>1010725</v>
@@ -3454,10 +3456,10 @@
         <v>3898911</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>4265306</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1.094</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>4265306</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>903645</v>
@@ -3475,10 +3477,10 @@
         <v>3558850</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>3935801</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1.1059</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>3935801</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>862139</v>
@@ -3496,10 +3498,10 @@
         <v>3398156</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>3573808</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1.0517</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>3573808</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>831847</v>
@@ -3786,8 +3788,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3884,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3910,7 +3912,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -3952,7 +3954,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3966,7 +3968,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Pakistán</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3982,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>República Unida de Tanzanía</t>
+          <t>United Republic of Tanzania</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4008,7 +4010,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>República Popular Democrática de Corea</t>
+          <t>Democratic People's Republic of Korea</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4022,35 +4024,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>1132294.55</v>
+        <v>18232.75</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.1879657801960482</v>
+        <v>0.003026715158939428</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>1114061.8</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.1849390650371087</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>6023939.83</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4061,40 +4071,41 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="12" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="33" t="n"/>
+      <c r="C28" s="35" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="33" t="n"/>
+      <c r="C29" s="35" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="33" t="n"/>
+      <c r="C30" s="35" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="33" t="n"/>
+      <c r="C31" s="35" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="33" t="n"/>
+      <c r="C32" s="35" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="33" t="n"/>
+      <c r="C33" s="35" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="33" t="n"/>
+      <c r="C34" s="35" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4116,7 +4127,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4226,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4257,7 +4268,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4271,7 +4282,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4296,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4313,7 +4324,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>República Unida de Tanzanía</t>
+          <t>United Republic of Tanzania</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4327,7 +4338,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4355,36 +4366,44 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>614590.1899999999</v>
+        <v>1216.75</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.2630092671506379</v>
+        <v>0.0005206990463117199</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>2336762.49</v>
+        <v>613373.4399999999</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>1</v>
+        <v>0.2624885681043262</v>
       </c>
       <c r="E23" s="29" t="n"/>
       <c r="F23" s="25" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
+      <c r="B24" s="29" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C24" s="29" t="n">
+        <v>2336762.49</v>
+      </c>
+      <c r="D24" s="31" t="n">
+        <v>1</v>
+      </c>
       <c r="E24" s="29" t="n"/>
       <c r="F24" s="25" t="n"/>
     </row>
@@ -4396,126 +4415,126 @@
       <c r="F25" s="25" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="13" t="n"/>
-      <c r="C26" s="17" t="n"/>
-      <c r="D26" s="35" t="n"/>
-      <c r="E26" s="25" t="n"/>
+      <c r="B26" s="29" t="n"/>
+      <c r="C26" s="29" t="n"/>
+      <c r="D26" s="36" t="n"/>
+      <c r="E26" s="29" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="35" t="n"/>
+      <c r="D27" s="37" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="35" t="n"/>
+      <c r="D28" s="37" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="35" t="n"/>
+      <c r="D29" s="37" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="35" t="n"/>
+      <c r="D30" s="37" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="35" t="n"/>
+      <c r="D31" s="37" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="35" t="n"/>
+      <c r="D32" s="37" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="35" t="n"/>
+      <c r="D33" s="37" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="35" t="n"/>
+      <c r="D34" s="37" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="35" t="n"/>
+      <c r="D35" s="37" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="35" t="n"/>
+      <c r="D36" s="37" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="36" t="n"/>
+      <c r="D37" s="38" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="36" t="n"/>
+      <c r="D38" s="38" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="36" t="n"/>
+      <c r="D39" s="38" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="36" t="n"/>
+      <c r="D40" s="38" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="36" t="n"/>
+      <c r="D41" s="38" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="36" t="n"/>
+      <c r="D42" s="38" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="36" t="n"/>
+      <c r="D43" s="38" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="36" t="n"/>
+      <c r="D44" s="38" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="36" t="n"/>
+      <c r="D45" s="38" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4537,8 +4556,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4652,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4666,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4661,7 +4680,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4675,7 +4694,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Polonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4703,7 +4722,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Emiratos Árabes Unidos</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4736,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4745,7 +4764,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4778,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4773,35 +4792,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>896160.1600000001</v>
+        <v>2635.15</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.4180706762963295</v>
+        <v>0.001229332648130969</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>893525.0100000002</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.4168413436481986</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>2143561.39</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4811,59 +4838,60 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n"/>
-      <c r="C26" s="37" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="B26" s="29" t="n"/>
+      <c r="C26" s="33" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="39" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="39" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="39" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="39" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="39" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="39" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="39" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="39" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="C35" s="39" t="n"/>
+      <c r="D35" s="38" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="C36" s="39" t="n"/>
+      <c r="D36" s="38" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4932,7 +4960,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5039,10 @@
         <v>1052685</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2296700</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2.1818</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2296700</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>181916.96</v>
@@ -5033,10 +5061,10 @@
         <v>1043560</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2188100</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2.0968</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2188100</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>161270.01</v>
@@ -5055,10 +5083,10 @@
         <v>1012920</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2127600</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2.1005</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2127600</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>148038.66</v>
@@ -5077,10 +5105,10 @@
         <v>1013860</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2134000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2.1048</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2134000</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>88362.09</v>
@@ -5099,10 +5127,10 @@
         <v>1026550</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2611610</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2.5441</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2611610</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>153947.03</v>
@@ -5121,10 +5149,10 @@
         <v>1003250</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2241000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2.2337</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2241000</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>129291.36</v>
@@ -5143,10 +5171,10 @@
         <v>1081000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2391000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2.2118</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2391000</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>146768.88</v>
@@ -5165,10 +5193,10 @@
         <v>1153000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2574000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2.2324</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2574000</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>134585.74</v>
@@ -5187,10 +5215,10 @@
         <v>1197000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2677000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2.2364</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2677000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>153113.31</v>
@@ -5209,10 +5237,10 @@
         <v>1463080</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2995400</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2.0473</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2995400</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>173614.03</v>
@@ -5231,10 +5259,10 @@
         <v>1622800</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>3373700</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2.0789</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>3373700</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>147813</v>
@@ -5253,10 +5281,10 @@
         <v>1596540</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>3406500</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2.1337</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>3406500</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>147680</v>
@@ -5275,10 +5303,10 @@
         <v>1461400</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>3157000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2.1603</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>3157000</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>130481</v>
@@ -5297,10 +5325,10 @@
         <v>1345000</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>3004000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>2.2335</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>3004000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>89626</v>
@@ -5319,10 +5347,10 @@
         <v>1391000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>3066000</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>2.2042</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>3066000</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>105032</v>
@@ -5341,10 +5369,10 @@
         <v>1326000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>2838222</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>2.1404</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>2838222</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>104847</v>
@@ -5363,10 +5391,10 @@
         <v>1163800</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>2395480</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>2.0583</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>2395480</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>84421</v>
@@ -5385,10 +5413,10 @@
         <v>1338000</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>2744000</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>2.0508</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>2744000</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>82390</v>
@@ -5407,10 +5435,10 @@
         <v>1363200</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>2683000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.9682</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>2683000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>69404</v>
@@ -5429,10 +5457,10 @@
         <v>1265600</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>2406000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.9011</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>2406000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>45759</v>
@@ -5451,10 +5479,10 @@
         <v>1264500</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>2257415</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1.7852</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>2257415</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>54868</v>
@@ -5473,10 +5501,10 @@
         <v>1327800</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>2446527</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1.8425</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>2446527</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>46805</v>
@@ -5495,10 +5523,10 @@
         <v>1339440</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>2349627</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1.7542</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>2349627</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>56698</v>
@@ -5517,10 +5545,10 @@
         <v>1437390</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>2552344</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1.7757</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>2552344</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>37910.85</v>
@@ -5539,10 +5567,10 @@
         <v>1373700</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>2469000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1.7973</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>2469000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>10480</v>
@@ -5561,10 +5589,10 @@
         <v>1361120</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>2364006</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1.7368</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>2364006</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>6708</v>
@@ -5583,10 +5611,10 @@
         <v>2353000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>4251000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1.8066</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>4251000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>15135</v>
@@ -5605,10 +5633,10 @@
         <v>1853000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>3234000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1.7453</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>3234000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>13646</v>
@@ -5627,10 +5655,10 @@
         <v>1470000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>2314000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1.5741</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>2314000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>8557</v>
@@ -5649,10 +5677,10 @@
         <v>1489750</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>2238000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1.5023</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>2238000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>8733</v>
@@ -5671,10 +5699,10 @@
         <v>2089000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>3451000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1.652</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>3451000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>14530</v>
@@ -5693,10 +5721,10 @@
         <v>2092900</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>3498561</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1.6716</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>3498561</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>21159</v>
@@ -5715,10 +5743,10 @@
         <v>1804670</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>3031000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1.6795</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>3031000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>14700</v>
@@ -5737,10 +5765,10 @@
         <v>1592600</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>2627082</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1.6496</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>2627082</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>13236</v>
@@ -5759,10 +5787,10 @@
         <v>1798000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>2830353</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1.5742</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>2830353</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>20670</v>
@@ -5781,10 +5809,10 @@
         <v>1554667</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>2734000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1.7586</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>2734000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>37379</v>
@@ -5803,10 +5831,10 @@
         <v>1128000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>1943000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1.7225</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>1943000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>26127</v>
@@ -5825,10 +5853,10 @@
         <v>1124200</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>1707142</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1.5185</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>1707142</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>16507</v>
@@ -5847,10 +5875,10 @@
         <v>1313000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>2424849</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1.8468</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>2424849</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>28975</v>
@@ -5869,10 +5897,10 @@
         <v>897000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>1789000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1.9944</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>1789000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>15984</v>
@@ -5891,10 +5919,10 @@
         <v>766960</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>1380600</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1.8001</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>1380600</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>10510</v>
@@ -5913,10 +5941,10 @@
         <v>1124000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>2179000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1.9386</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>2179000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>30000</v>
@@ -5935,10 +5963,10 @@
         <v>757000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>1497000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1.9775</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>1497000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>42600</v>
@@ -5957,10 +5985,10 @@
         <v>512000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>900000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1.7578</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>900000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>16100</v>
@@ -5979,10 +6007,10 @@
         <v>625000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>941400</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1.5062</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>941400</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1800</v>
@@ -6001,10 +6029,10 @@
         <v>783000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>1242000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1.5862</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>1242000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>2000</v>
@@ -6023,10 +6051,10 @@
         <v>700000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>987000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1.41</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>987000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6045,10 +6073,10 @@
         <v>667000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>970000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1.4543</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>970000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6067,10 +6095,10 @@
         <v>565000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>960000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1.6991</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>960000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6089,10 +6117,10 @@
         <v>471000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>984000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2.0892</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>984000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1000</v>
@@ -6111,10 +6139,10 @@
         <v>444000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>950000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>2.1396</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>950000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>600</v>
@@ -6133,10 +6161,10 @@
         <v>422000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>840000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1.9905</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>840000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>300</v>
@@ -6155,10 +6183,10 @@
         <v>392000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>785000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>2.0026</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>785000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>4000</v>
@@ -6177,10 +6205,10 @@
         <v>383000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>785000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2.0496</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>785000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>4100</v>
@@ -6199,10 +6227,10 @@
         <v>399000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>775600</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>1.9439</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>775600</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>4400</v>
@@ -6221,10 +6249,10 @@
         <v>401000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>848200</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>2.1152</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>848200</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>5500</v>
@@ -6243,10 +6271,10 @@
         <v>500000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>848200</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1.6964</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>848200</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>6700</v>
@@ -6264,10 +6292,10 @@
         <v>467000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>789200</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>1.6899</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>789200</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>4900</v>
@@ -6285,10 +6313,10 @@
         <v>399800</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1.5008</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>600000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6306,10 +6334,10 @@
         <v>400000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>550000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1.375</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>550000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>3572</v>
@@ -6327,10 +6355,10 @@
         <v>380000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>480000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1.2632</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>480000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>3200</v>
@@ -6348,10 +6376,10 @@
         <v>340000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>420000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1.2353</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>420000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6369,10 +6397,10 @@
         <v>310000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>380000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1.2258</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>380000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6708,7 +6736,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6787,10 +6815,10 @@
         <v>422115</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>769671.49</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1.8234</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>769671.49</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>2446.68</v>
@@ -6809,10 +6837,10 @@
         <v>422377</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>763888.03</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1.8085</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>763888.03</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>3796.88</v>
@@ -6831,10 +6859,10 @@
         <v>422642</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>758104.58</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1.7937</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>758104.58</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>7118.25</v>
@@ -6853,10 +6881,10 @@
         <v>423136</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>751134.73</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1.7752</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>751134.73</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>7906.19</v>
@@ -6875,10 +6903,10 @@
         <v>425736</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>746861.05</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1.7543</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>746861.05</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>2812.43</v>
@@ -6897,10 +6925,10 @@
         <v>427979</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>744046.46</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1.7385</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>744046.46</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>2235.88</v>
@@ -6919,10 +6947,10 @@
         <v>431801</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>744410.42</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1.724</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>744410.42</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>1567.94</v>
@@ -6941,10 +6969,10 @@
         <v>435530</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>747976.54</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1.7174</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>747976.54</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>2847.82</v>
@@ -6963,10 +6991,10 @@
         <v>430962</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>738029.0699999999</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1.7125</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>738029.0699999999</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1986.19</v>
@@ -6985,10 +7013,10 @@
         <v>424511</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>719419.96</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1.6947</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>719419.96</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>1814.57</v>
@@ -7007,10 +7035,10 @@
         <v>445873</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>765153.8199999999</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.7161</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>765153.8199999999</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1152</v>
@@ -7029,10 +7057,10 @@
         <v>460000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>820000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.7826</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>820000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>3170</v>
@@ -7051,10 +7079,10 @@
         <v>490000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>830000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1.6939</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>830000</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>1648</v>
@@ -7073,10 +7101,10 @@
         <v>444280</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>690000</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1.5531</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>690000</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>590</v>
@@ -7095,10 +7123,10 @@
         <v>390690</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>622830</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.5942</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>622830</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>1075</v>
@@ -7117,10 +7145,10 @@
         <v>350000</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>490000</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.4</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>490000</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>909</v>
@@ -7139,10 +7167,10 @@
         <v>370000</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>520000</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.4054</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>520000</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>928</v>
@@ -7161,10 +7189,10 @@
         <v>372800</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>552200</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.4812</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>552200</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>1273</v>
@@ -7183,10 +7211,10 @@
         <v>366500</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>549100</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.4982</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>549100</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1152</v>
@@ -7205,10 +7233,10 @@
         <v>369700</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>549900</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.4874</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>549900</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>910</v>
@@ -7227,10 +7255,10 @@
         <v>330000</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>490000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1.4848</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>490000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1029</v>
@@ -7249,10 +7277,10 @@
         <v>350000</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>550000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1.5714</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>550000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1291</v>
@@ -7271,10 +7299,10 @@
         <v>260000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>340000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1.3077</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>340000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>590</v>
@@ -7293,10 +7321,10 @@
         <v>433400</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>520000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1.1998</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>520000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1423</v>
@@ -7315,10 +7343,10 @@
         <v>508100</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>736200</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1.4489</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>736200</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>981.27</v>
@@ -7337,10 +7365,10 @@
         <v>464000</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>646000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1.3922</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>646000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>2666</v>
@@ -7359,10 +7387,10 @@
         <v>428000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>618000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1.4439</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>618000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>291</v>
@@ -7381,10 +7409,10 @@
         <v>394000</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>535200</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1.3584</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>535200</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>431</v>
@@ -7403,10 +7431,10 @@
         <v>381000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>566700</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1.4874</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>566700</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>409</v>
@@ -7425,10 +7453,10 @@
         <v>384800</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>562900</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1.4628</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>562900</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>143</v>
@@ -7447,10 +7475,10 @@
         <v>418500</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>596500</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1.4253</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>596500</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>136</v>
@@ -7469,10 +7497,10 @@
         <v>427000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>584400</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1.3686</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>584400</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>98</v>
@@ -7491,10 +7519,10 @@
         <v>410800</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>555900</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1.3532</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>555900</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>71</v>
@@ -7513,10 +7541,10 @@
         <v>413100</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>551600</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1.3353</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>551600</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>38</v>
@@ -7535,10 +7563,10 @@
         <v>377000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>492800</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1.3072</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>492800</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>58</v>
@@ -7557,10 +7585,10 @@
         <v>318000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>367400</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1.1553</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>367400</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>125</v>
@@ -7579,10 +7607,10 @@
         <v>389200</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>461800</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1.1865</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>461800</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>667</v>
@@ -7601,10 +7629,10 @@
         <v>397000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>441200</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1.1113</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>441200</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>9</v>
@@ -7623,10 +7651,10 @@
         <v>436600</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>485900</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1.1129</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>485900</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -7645,10 +7673,10 @@
         <v>439700</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>492500</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1.1201</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>492500</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>30</v>
@@ -7667,10 +7695,10 @@
         <v>502700</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>581600</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1.157</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>581600</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>141</v>
@@ -7689,10 +7717,10 @@
         <v>443800</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>520100</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1.1719</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>520100</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>14</v>
@@ -7711,10 +7739,10 @@
         <v>451500</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>480800</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1.0649</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>480800</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>5</v>
@@ -7733,10 +7761,10 @@
         <v>425400</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>438500</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1.0308</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>438500</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>88</v>
@@ -7755,10 +7783,10 @@
         <v>409300</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>453800</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1.1087</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>453800</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>23</v>
@@ -7777,10 +7805,10 @@
         <v>504400</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>493600</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.9786</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>493600</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>142</v>
@@ -7799,10 +7827,10 @@
         <v>432400</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>418800</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.9685</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>418800</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>112</v>
@@ -7821,10 +7849,10 @@
         <v>368200</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>349800</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.95</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>349800</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>161</v>
@@ -7843,10 +7871,10 @@
         <v>380600</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>363100</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.954</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>363100</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>100</v>
@@ -7865,10 +7893,10 @@
         <v>461500</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>462100</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1.0013</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>462100</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>70</v>
@@ -7887,10 +7915,10 @@
         <v>444900</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>372200</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.8366</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>372200</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>161</v>
@@ -7909,10 +7937,10 @@
         <v>458300</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>418900</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.914</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>418900</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>161</v>
@@ -7931,10 +7959,10 @@
         <v>446900</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>361900</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.8098</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>361900</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>59</v>
@@ -7953,10 +7981,10 @@
         <v>437900</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>337100</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.7697999999999999</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>337100</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>32</v>
@@ -7975,10 +8003,10 @@
         <v>439800</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>361000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.8208</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>361000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>313</v>
@@ -7997,10 +8025,10 @@
         <v>423500</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>368700</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.8706</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>368700</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>330</v>
@@ -8019,10 +8047,10 @@
         <v>423500</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>353400</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.8345</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>353400</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>700</v>
@@ -8040,10 +8068,10 @@
         <v>377000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>293000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.7772</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>293000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>93</v>
@@ -8061,10 +8089,10 @@
         <v>394000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>346000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.8782000000000001</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>346000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>79</v>
@@ -8082,10 +8110,10 @@
         <v>441000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>360000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.8162999999999999</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>360000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>764</v>
@@ -8103,10 +8131,10 @@
         <v>405000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>341000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.842</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>341000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>551</v>
@@ -8124,10 +8152,10 @@
         <v>418000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>339000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.8110000000000001</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>339000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1076</v>
@@ -8145,10 +8173,10 @@
         <v>401000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>307000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.7656000000000001</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>307000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>901</v>
@@ -8484,7 +8512,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8563,10 +8591,10 @@
         <v>325408</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>683469</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2.1003</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>683469</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>16627.35</v>
@@ -8585,10 +8613,10 @@
         <v>325234</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>667238</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2.0516</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>667238</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>15881.15</v>
@@ -8607,10 +8635,10 @@
         <v>349389</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>744173</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2.1299</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>744173</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>7565.59</v>
@@ -8629,10 +8657,10 @@
         <v>353652</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>702728</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1.9871</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>702728</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>6739.65</v>
@@ -8651,10 +8679,10 @@
         <v>361827</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>769801</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2.1275</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>769801</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>5536.82</v>
@@ -8673,10 +8701,10 @@
         <v>356212</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>756232</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2.123</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>756232</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>7244.67</v>
@@ -8695,10 +8723,10 @@
         <v>391188</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>865620</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2.2128</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>865620</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>9148.24</v>
@@ -8717,10 +8745,10 @@
         <v>376503</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>677472</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1.7994</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>677472</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>12594.52</v>
@@ -8739,10 +8767,10 @@
         <v>405881</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>867355</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2.137</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>867355</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>7610.68</v>
@@ -8761,10 +8789,10 @@
         <v>415842</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>862396</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2.0739</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>862396</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>7981.6</v>
@@ -8783,10 +8811,10 @@
         <v>405253</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>850673</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2.0991</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>850673</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>11406</v>
@@ -8805,10 +8833,10 @@
         <v>410225</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>810550</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.9759</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>810550</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>10122</v>
@@ -8827,10 +8855,10 @@
         <v>454501</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>951933</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2.0945</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>951933</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>10348</v>
@@ -8849,10 +8877,10 @@
         <v>449629</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>787817</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1.7521</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>787817</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>20511</v>
@@ -8871,10 +8899,10 @@
         <v>442397</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>863079</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.9509</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>863079</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>15630</v>
@@ -8893,10 +8921,10 @@
         <v>432182</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>851058</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.9692</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>851058</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>14311</v>
@@ -8915,10 +8943,10 @@
         <v>459481</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>908679</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.9776</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>908679</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>12357</v>
@@ -8937,10 +8965,10 @@
         <v>495706</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>900381</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.8164</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>900381</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>10119</v>
@@ -8959,10 +8987,10 @@
         <v>493761</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>889426</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.8013</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>889426</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>7900</v>
@@ -8981,10 +9009,10 @@
         <v>462265</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>921281</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.993</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>921281</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>7476</v>
@@ -9003,10 +9031,10 @@
         <v>392619</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>656200</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1.6713</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>656200</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>10802</v>
@@ -9025,10 +9053,10 @@
         <v>344080</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>670309</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1.9481</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>670309</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>10525</v>
@@ -9047,10 +9075,10 @@
         <v>302559</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>568505</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1.879</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>568505</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>8962</v>
@@ -9069,10 +9097,10 @@
         <v>310462</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>579727</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1.8673</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>579727</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>6942.37</v>
@@ -9091,10 +9119,10 @@
         <v>341591</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>629525</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>1.8429</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>629525</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>2647</v>
@@ -9113,10 +9141,10 @@
         <v>353679</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>505353</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>1.4288</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>505353</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>14726</v>
@@ -9135,10 +9163,10 @@
         <v>338059</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>596952</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>1.7658</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>596952</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>18967</v>
@@ -9157,10 +9185,10 @@
         <v>317279</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>476638</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>1.5023</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>476638</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>17354</v>
@@ -9179,10 +9207,10 @@
         <v>293425</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>455986</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>1.554</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>455986</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>15703</v>
@@ -9201,10 +9229,10 @@
         <v>320185</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>519541</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>1.6226</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>519541</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>9155</v>
@@ -9223,10 +9251,10 @@
         <v>372912</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>655739</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>1.7584</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>655739</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>5865</v>
@@ -9245,10 +9273,10 @@
         <v>344872</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>575652</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>1.6692</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>575652</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>9818</v>
@@ -9267,10 +9295,10 @@
         <v>287266</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>413831</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>1.4406</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>413831</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>6025</v>
@@ -9289,10 +9317,10 @@
         <v>274098</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>445489</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>1.6253</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>445489</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>31</v>
@@ -9311,10 +9339,10 @@
         <v>287001</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>443869</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>1.5466</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>443869</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>1583</v>
@@ -9333,10 +9361,10 @@
         <v>278953</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>427900</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>1.534</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>427900</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>111</v>
@@ -9355,10 +9383,10 @@
         <v>294093</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>395645</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>1.3453</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>395645</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>37</v>
@@ -9377,10 +9405,10 @@
         <v>276185</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>385136</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1.3945</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>385136</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>70</v>
@@ -9399,10 +9427,10 @@
         <v>268992</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>410474</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>1.526</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>410474</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>57</v>
@@ -9421,10 +9449,10 @@
         <v>282218</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>413598</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>1.4655</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>413598</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>33</v>
@@ -9443,10 +9471,10 @@
         <v>311759</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>392578</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>1.2592</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>392578</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>652</v>
@@ -9465,10 +9493,10 @@
         <v>317231</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>420329</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1.325</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>420329</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>377</v>
@@ -9487,10 +9515,10 @@
         <v>297564</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>365738</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1.2291</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>365738</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>246</v>
@@ -9509,10 +9537,10 @@
         <v>316427</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>404860</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1.2795</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>404860</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>345</v>
@@ -9531,10 +9559,10 @@
         <v>326049</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>421708</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1.2934</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>421708</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>330</v>
@@ -9553,10 +9581,10 @@
         <v>328313</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>405191</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1.2342</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>405191</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>267</v>
@@ -9575,10 +9603,10 @@
         <v>311386</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>356999</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1.1465</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>356999</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>198</v>
@@ -9597,10 +9625,10 @@
         <v>280373</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>298645</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1.0652</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>298645</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>2376</v>
@@ -9619,10 +9647,10 @@
         <v>253736</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>285934</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1.1269</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>285934</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>400</v>
@@ -9641,10 +9669,10 @@
         <v>240976</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>296175</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1.2291</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>296175</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1716</v>
@@ -9663,10 +9691,10 @@
         <v>235245</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>234280</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.9959</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>234280</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>340</v>
@@ -9685,10 +9713,10 @@
         <v>251269</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>263168</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1.0474</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>263168</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>159</v>
@@ -9707,10 +9735,10 @@
         <v>241323</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>244172</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1.0118</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>244172</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>16</v>
@@ -9729,10 +9757,10 @@
         <v>245207</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>244000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.9951</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>244000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>9</v>
@@ -9751,10 +9779,10 @@
         <v>258128</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>250224</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.9693999999999999</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>250224</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>9</v>
@@ -9773,10 +9801,10 @@
         <v>275654</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>258019</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.9360000000000001</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>258019</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>4</v>
@@ -9795,10 +9823,10 @@
         <v>260768</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>242817</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.9312</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>242817</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>4</v>
@@ -9816,10 +9844,10 @@
         <v>264967</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>228284</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.8616</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>228284</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>6</v>
@@ -9837,10 +9865,10 @@
         <v>273849</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>248182</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.9063</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>248182</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>3</v>
@@ -9858,10 +9886,10 @@
         <v>250505</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>210427</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.84</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>210427</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>2</v>
@@ -9879,10 +9907,10 @@
         <v>250402</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>206806</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.8259</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>206806</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>4</v>
@@ -9900,10 +9928,10 @@
         <v>232297</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>187040</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.8052</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>187040</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>4</v>
@@ -9921,10 +9949,10 @@
         <v>227656</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>167839</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.7372000000000001</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>167839</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>4</v>
@@ -10260,7 +10288,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10339,10 +10367,10 @@
         <v>191816</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>238806</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1.245</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>238806</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>129140.8</v>
@@ -10361,10 +10389,10 @@
         <v>182018</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>221925.05</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1.2192</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>221925.05</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>140920.15</v>
@@ -10383,10 +10411,10 @@
         <v>219082</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>245338</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1.1198</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>245338</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>116931.29</v>
@@ -10405,10 +10433,10 @@
         <v>219773</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>261017</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1.1877</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>261017</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>110275</v>
@@ -10427,10 +10455,10 @@
         <v>236489</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>269803.46</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1.1409</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>269803.46</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>103561.26</v>
@@ -10449,10 +10477,10 @@
         <v>204509</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>195482</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>0.9559</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>195482</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>121389.52</v>
@@ -10471,10 +10499,10 @@
         <v>201909</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>181142</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>0.8971</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>181142</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>168060.2</v>
@@ -10493,10 +10521,10 @@
         <v>155950</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>126728</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>0.8126</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>126728</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>81501.88</v>
@@ -10515,10 +10543,10 @@
         <v>209095</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>193790</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>0.9268</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>193790</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>75353.05</v>
@@ -10537,10 +10565,10 @@
         <v>209400</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>196300</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>0.9374</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>196300</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>95731.97</v>
@@ -10559,10 +10587,10 @@
         <v>270200</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>260200</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>0.963</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>260200</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>121218</v>
@@ -10581,10 +10609,10 @@
         <v>270300</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>260800</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>0.9649</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>260800</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>137426</v>
@@ -10603,10 +10631,10 @@
         <v>228800</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>214600</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>0.9379</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>214600</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>106570</v>
@@ -10625,10 +10653,10 @@
         <v>216300</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>135700</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>0.6274</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>135700</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>65685</v>
@@ -10647,10 +10675,10 @@
         <v>204450</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>176510</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>0.8633</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>176510</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>53198</v>
@@ -10669,10 +10697,10 @@
         <v>196627</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>168037</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>0.8546</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>168037</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>77302</v>
@@ -10691,10 +10719,10 @@
         <v>198054</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>164851</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>0.8324</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>164851</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>61687</v>
@@ -10713,10 +10741,10 @@
         <v>172234</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>146265</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>0.8492000000000001</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>146265</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>48287</v>
@@ -10735,10 +10763,10 @@
         <v>198212</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>153470</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>0.7743</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>153470</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>42031</v>
@@ -10757,10 +10785,10 @@
         <v>200973</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>165108</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>0.8215</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>165108</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>35171</v>
@@ -10779,10 +10807,10 @@
         <v>256926</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>200875</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>0.7817999999999999</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>200875</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>29579</v>
@@ -10801,10 +10829,10 @@
         <v>256081</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>192083</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>0.7501</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>192083</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>33289</v>
@@ -10823,10 +10851,10 @@
         <v>262000</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>199103</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>0.7599</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>199103</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>44347</v>
@@ -10845,10 +10873,10 @@
         <v>168300</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>204329</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>1.2141</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>204329</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>34247.82</v>
@@ -10867,10 +10895,10 @@
         <v>167271</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>138000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>0.825</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>138000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>40913</v>
@@ -10889,10 +10917,10 @@
         <v>174079</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>137564</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>0.7902</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>137564</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>17152</v>
@@ -10911,10 +10939,10 @@
         <v>219262</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>136746</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>0.6237</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>136746</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>47108</v>
@@ -10933,10 +10961,10 @@
         <v>222164</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>151025</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>0.6798</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>151025</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>45060</v>
@@ -10955,10 +10983,10 @@
         <v>216148</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>140169</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>0.6485</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>140169</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>47954</v>
@@ -10977,10 +11005,10 @@
         <v>182293</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>130134</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>0.7139</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>130134</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>40322</v>
@@ -10999,10 +11027,10 @@
         <v>167932</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>121370</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>0.7227</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>121370</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>30226</v>
@@ -11021,10 +11049,10 @@
         <v>166847</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>111655</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>0.6692</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>111655</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>25108</v>
@@ -11043,10 +11071,10 @@
         <v>214838</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>140283</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>0.653</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>140283</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>28543</v>
@@ -11065,10 +11093,10 @@
         <v>235866</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>156432</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>0.6632</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>156432</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>26545</v>
@@ -11087,10 +11115,10 @@
         <v>183794</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>80979</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>0.4406</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>80979</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>13600</v>
@@ -11109,10 +11137,10 @@
         <v>187432</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>116917</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>0.6237999999999999</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>116917</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>10511</v>
@@ -11131,10 +11159,10 @@
         <v>211432</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>112691</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>0.533</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>112691</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>11541</v>
@@ -11153,10 +11181,10 @@
         <v>198842</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>101235</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>0.5091</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>101235</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>9824</v>
@@ -11175,10 +11203,10 @@
         <v>288118</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>160765</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>0.5580000000000001</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>160765</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>10332</v>
@@ -11197,10 +11225,10 @@
         <v>156606</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>107825</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>0.6885</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>107825</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>13475</v>
@@ -11219,10 +11247,10 @@
         <v>201294</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>109484</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>0.5438999999999999</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>109484</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>13525</v>
@@ -11241,10 +11269,10 @@
         <v>210026</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>106802</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>0.5085</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>106802</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>16554</v>
@@ -11263,10 +11291,10 @@
         <v>204026</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>109646</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>0.5374</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>109646</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>21612</v>
@@ -11285,10 +11313,10 @@
         <v>141225</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>85487</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>0.6052999999999999</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>85487</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>19985</v>
@@ -11307,10 +11335,10 @@
         <v>208468</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>120299</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>0.5771000000000001</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>120299</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>13098</v>
@@ -11329,10 +11357,10 @@
         <v>175557</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>82466</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>0.4697</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>82466</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>11866</v>
@@ -11351,10 +11379,10 @@
         <v>188370</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>84502</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>0.4486</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>84502</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>9435</v>
@@ -11373,10 +11401,10 @@
         <v>198608</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>89798</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>0.4521</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>89798</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>9392</v>
@@ -11395,10 +11423,10 @@
         <v>198657</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>95665</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>0.4816</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>95665</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>9529</v>
@@ -11417,10 +11445,10 @@
         <v>175046</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>78071</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>0.446</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>78071</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>15418</v>
@@ -11439,10 +11467,10 @@
         <v>175723</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>76507</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>0.4354</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>76507</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>5216</v>
@@ -11461,10 +11489,10 @@
         <v>175510</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>126558</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>0.7211000000000001</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>126558</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>7832</v>
@@ -11483,10 +11511,10 @@
         <v>135212</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>57352</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>0.4242</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>57352</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>4755</v>
@@ -11505,10 +11533,10 @@
         <v>170044</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>76666</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>0.4509</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>76666</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>3950</v>
@@ -11527,10 +11555,10 @@
         <v>223300</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>89200</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>0.3995</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>89200</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>26146</v>
@@ -11549,10 +11577,10 @@
         <v>151100</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>0.3971</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>60000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>23616</v>
@@ -11571,10 +11599,10 @@
         <v>144500</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>60000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>0.4152</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>60000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11592,10 +11620,10 @@
         <v>167300</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>69800</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>0.4172</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>69800</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11613,10 +11641,10 @@
         <v>179300</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>78400</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>0.4373</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>78400</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -11634,10 +11662,10 @@
         <v>146700</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>48400</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>0.3299</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>48400</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -11655,10 +11683,10 @@
         <v>304500</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>93900</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.3084</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>93900</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>895</v>
@@ -11676,10 +11704,10 @@
         <v>188500</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>81600</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>0.4329</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>81600</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>1430</v>
@@ -11697,10 +11725,10 @@
         <v>223900</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>85800</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>0.3832</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>85800</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>1526</v>
@@ -12036,7 +12064,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -12115,10 +12143,10 @@
         <v>136126</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>236815</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1.7397</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>236815</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>9515.780000000001</v>
@@ -12137,10 +12165,10 @@
         <v>154023</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>194828.2</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1.2649</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>194828.2</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>5296.27</v>
@@ -12159,10 +12187,10 @@
         <v>99029</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>162370</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>1.6396</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>162370</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>5166.15</v>
@@ -12181,10 +12209,10 @@
         <v>104759</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>203488</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>1.9424</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>203488</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>5499.08</v>
@@ -12203,10 +12231,10 @@
         <v>97138</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>184584</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>1.9002</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>184584</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1819.61</v>
@@ -12225,10 +12253,10 @@
         <v>136412</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>239906</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>1.7587</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>239906</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>7998.54</v>
@@ -12247,10 +12275,10 @@
         <v>118967</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>110816</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>0.9315</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>110816</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>5271.42</v>
@@ -12269,10 +12297,10 @@
         <v>102537</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>168974</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1.6479</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>168974</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3441.71</v>
@@ -12291,10 +12319,10 @@
         <v>132126</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>171083.17</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1.2948</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>171083.17</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>1720.46</v>
@@ -12313,10 +12341,10 @@
         <v>128668</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>184003.36</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1.4301</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>184003.36</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>15440.72</v>
@@ -12335,10 +12363,10 @@
         <v>125717</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>147068.07</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1.1698</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>147068.07</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>19180</v>
@@ -12357,10 +12385,10 @@
         <v>92705</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>139179.15</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1.5013</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>139179.15</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>43301</v>
@@ -12379,10 +12407,10 @@
         <v>117287</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>125056</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1.0662</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>125056</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>29585</v>
@@ -12401,10 +12429,10 @@
         <v>94175</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>109737</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1.1652</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>109737</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>119184</v>
@@ -12423,10 +12451,10 @@
         <v>93000</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>126106.64</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1.356</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>126106.64</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>8332</v>
@@ -12445,10 +12473,10 @@
         <v>77483</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>109376.03</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1.4116</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>109376.03</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>9536</v>
@@ -12467,10 +12495,10 @@
         <v>75202</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>104303</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>1.387</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>104303</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>30000</v>
@@ -12489,10 +12517,10 @@
         <v>38865</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>44451</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1.1437</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>44451</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>34850</v>
@@ -12511,10 +12539,10 @@
         <v>51167</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>83230</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1.6266</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>83230</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>24660</v>
@@ -12533,10 +12561,10 @@
         <v>55584</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>78312</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1.4089</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>78312</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>25230</v>
@@ -12555,10 +12583,10 @@
         <v>47293</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>93514</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1.9773</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>93514</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>4064</v>
@@ -12577,10 +12605,10 @@
         <v>55588</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>113635</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>2.0442</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>113635</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1034</v>
@@ -12599,10 +12627,10 @@
         <v>67108</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>159853</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>2.382</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>159853</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>578</v>
@@ -12621,10 +12649,10 @@
         <v>76486</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>190242</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>2.4873</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>190242</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>4842.15</v>
@@ -12643,10 +12671,10 @@
         <v>79108</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>175282</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>2.2157</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>175282</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>6723</v>
@@ -12665,10 +12693,10 @@
         <v>83225</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>197222</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>2.3697</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>197222</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>9573</v>
@@ -12687,10 +12715,10 @@
         <v>80607</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>171191</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>2.1238</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>171191</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>10372</v>
@@ -12709,10 +12737,10 @@
         <v>74834</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>177884</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>2.377</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>177884</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>11005</v>
@@ -12731,10 +12759,10 @@
         <v>72460</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>178652</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>2.4655</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>178652</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1018</v>
@@ -12753,10 +12781,10 @@
         <v>69389</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>177039</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>2.5514</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>177039</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>346</v>
@@ -12775,10 +12803,10 @@
         <v>93340</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>204790</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>2.194</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>204790</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>1421</v>
@@ -12797,10 +12825,10 @@
         <v>86875</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>211394</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>2.4333</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>211394</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>26</v>
@@ -12819,10 +12847,10 @@
         <v>71647</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>178595</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>2.4927</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>178595</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>2086</v>
@@ -12841,10 +12869,10 @@
         <v>60103</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>130394</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>2.1695</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>130394</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>2408</v>
@@ -12863,10 +12891,10 @@
         <v>57161</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>130361</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>2.2806</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>130361</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>2200</v>
@@ -12885,10 +12913,10 @@
         <v>56328</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>114736</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>2.0369</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>114736</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>3000</v>
@@ -12907,10 +12935,10 @@
         <v>58242</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>121320</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>2.083</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>121320</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>917</v>
@@ -12929,10 +12957,10 @@
         <v>62380</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>116456</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>1.8669</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>116456</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>3048</v>
@@ -12951,10 +12979,10 @@
         <v>53868</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>107957</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>2.0041</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>107957</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>1300</v>
@@ -12973,10 +13001,10 @@
         <v>51172</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>124872</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>2.4402</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>124872</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>676</v>
@@ -12995,10 +13023,10 @@
         <v>47727</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>98956</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>2.0734</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>98956</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>951</v>
@@ -13017,10 +13045,10 @@
         <v>46632</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>90602</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>1.9429</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>90602</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>534</v>
@@ -13039,10 +13067,10 @@
         <v>39760</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>71812</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>1.8061</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>71812</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>669</v>
@@ -13061,10 +13089,10 @@
         <v>64068</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>125038</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1.9516</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>125038</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>3267</v>
@@ -13083,10 +13111,10 @@
         <v>60413</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>114464</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>1.8947</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>114464</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>1329</v>
@@ -13105,10 +13133,10 @@
         <v>55921</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>85117</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>1.5221</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>85117</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>526</v>
@@ -13127,10 +13155,10 @@
         <v>57716</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>85072</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>1.474</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>85072</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>463</v>
@@ -13149,10 +13177,10 @@
         <v>66749</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>112715</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>1.6886</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>112715</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>198</v>
@@ -13171,10 +13199,10 @@
         <v>66631</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>86695</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>1.3011</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>86695</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>699</v>
@@ -13193,10 +13221,10 @@
         <v>59802</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>75418</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>1.2611</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>75418</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -13215,10 +13243,10 @@
         <v>49687</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>73818</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>1.4857</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>73818</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -13237,10 +13265,10 @@
         <v>50286</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>66224</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>1.3169</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>66224</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -13259,10 +13287,10 @@
         <v>45266</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>65181</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>1.44</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>65181</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -13281,10 +13309,10 @@
         <v>43688</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>54518</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>1.2479</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>54518</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -13303,10 +13331,10 @@
         <v>46538</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>112107</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>2.4089</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>112107</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -13325,10 +13353,10 @@
         <v>46538</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>54077</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>1.162</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>54077</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -13347,10 +13375,10 @@
         <v>42491</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>84312</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>1.9842</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>84312</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -13368,10 +13396,10 @@
         <v>46538</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>112871</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>2.4254</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>112871</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>1293</v>
@@ -13389,10 +13417,10 @@
         <v>87447</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>113936</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1.3029</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>113936</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>10279</v>
@@ -13410,10 +13438,10 @@
         <v>105000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>148038</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1.4099</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>148038</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>11566</v>
@@ -13431,10 +13459,10 @@
         <v>89216</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>82523</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>0.925</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>82523</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>132</v>
@@ -13452,10 +13480,10 @@
         <v>82900</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>97944</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1.1815</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>97944</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>230</v>
@@ -13473,10 +13501,10 @@
         <v>84319</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>99890</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1.1847</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>99890</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>66</v>
